--- a/CRM/Mapeos_CLS_CRM_V3.1.xlsx
+++ b/CRM/Mapeos_CLS_CRM_V3.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="583" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="583" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PSXLATITEMLANG" sheetId="22" r:id="rId1"/>
@@ -2350,7 +2350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="287">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3196,6 +3196,21 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>NUMBER(10)</t>
+  </si>
+  <si>
+    <t>NUMBER(5)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>CHAR(1)</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
   </si>
 </sst>
 </file>
@@ -4163,7 +4178,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -4301,9 +4316,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4417,6 +4429,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -4898,7 +4916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4946,28 +4964,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -4978,14 +4996,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -4995,11 +5013,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5011,29 +5029,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5105,13 +5123,13 @@
       <c r="I9" s="65">
         <v>7</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="106" t="s">
+      <c r="K9" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="101"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="41">
         <v>13</v>
       </c>
@@ -5156,7 +5174,7 @@
       <c r="K10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="101"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="25">
         <v>7</v>
       </c>
@@ -5199,7 +5217,7 @@
       <c r="K11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="101"/>
+      <c r="L11" s="100"/>
       <c r="M11" s="25">
         <v>8</v>
       </c>
@@ -5242,7 +5260,7 @@
       <c r="K12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="101"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="25">
         <v>12</v>
       </c>
@@ -5261,7 +5279,7 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="95">
+      <c r="B13" s="94">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
@@ -5273,7 +5291,7 @@
       <c r="E13" s="48">
         <v>30</v>
       </c>
-      <c r="F13" s="92"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="76"/>
       <c r="H13" s="63"/>
       <c r="I13" s="61">
@@ -5285,7 +5303,7 @@
       <c r="K13" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="102"/>
+      <c r="L13" s="101"/>
       <c r="M13" s="25">
         <v>22</v>
       </c>
@@ -5304,20 +5322,20 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="97">
+      <c r="B14" s="96">
         <v>6</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="97">
         <v>10</v>
       </c>
-      <c r="F14" s="99"/>
-      <c r="G14" s="107"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="106"/>
       <c r="H14" s="63"/>
       <c r="I14" s="61">
         <v>12</v>
@@ -5328,7 +5346,7 @@
       <c r="K14" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="L14" s="102"/>
+      <c r="L14" s="101"/>
       <c r="M14" s="25">
         <v>10</v>
       </c>
@@ -5357,7 +5375,7 @@
       <c r="K15" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="L15" s="102"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="25">
         <v>10</v>
       </c>
@@ -5386,7 +5404,7 @@
       <c r="K16" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="L16" s="102"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="25">
         <v>10</v>
       </c>
@@ -5415,7 +5433,7 @@
       <c r="K17" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="L17" s="102"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="25">
         <v>7</v>
       </c>
@@ -5444,23 +5462,23 @@
       <c r="K18" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="L18" s="102"/>
-      <c r="M18" s="108">
+      <c r="L18" s="101"/>
+      <c r="M18" s="107">
         <v>11</v>
       </c>
-      <c r="N18" s="109" t="s">
+      <c r="N18" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="O18" s="109" t="s">
+      <c r="O18" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="P18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
+      <c r="Q18" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H19" s="63"/>
@@ -5473,7 +5491,7 @@
       <c r="K19" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="L19" s="102"/>
+      <c r="L19" s="101"/>
       <c r="M19" s="25">
         <v>9</v>
       </c>
@@ -5502,7 +5520,7 @@
       <c r="K20" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="L20" s="102"/>
+      <c r="L20" s="101"/>
       <c r="M20" s="25">
         <v>2</v>
       </c>
@@ -5531,7 +5549,7 @@
       <c r="K21" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="L21" s="102"/>
+      <c r="L21" s="101"/>
       <c r="M21" s="38">
         <v>6</v>
       </c>
@@ -5560,7 +5578,7 @@
       <c r="K22" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="L22" s="102"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="38">
         <v>9</v>
       </c>
@@ -5589,7 +5607,7 @@
       <c r="K23" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="L23" s="102"/>
+      <c r="L23" s="101"/>
       <c r="M23" s="38">
         <v>5</v>
       </c>
@@ -5618,7 +5636,7 @@
       <c r="K24" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="L24" s="103"/>
+      <c r="L24" s="102"/>
       <c r="M24" s="36">
         <v>5</v>
       </c>
@@ -5647,7 +5665,7 @@
       <c r="K25" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="L25" s="104"/>
+      <c r="L25" s="103"/>
       <c r="M25" s="41">
         <v>14</v>
       </c>
@@ -5678,7 +5696,7 @@
       <c r="K26" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="L26" s="102"/>
+      <c r="L26" s="101"/>
       <c r="M26" s="25">
         <v>7</v>
       </c>
@@ -5707,7 +5725,7 @@
       <c r="K27" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="L27" s="102"/>
+      <c r="L27" s="101"/>
       <c r="M27" s="25">
         <v>8</v>
       </c>
@@ -5736,7 +5754,7 @@
       <c r="K28" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="L28" s="102"/>
+      <c r="L28" s="101"/>
       <c r="M28" s="25">
         <v>12</v>
       </c>
@@ -5765,7 +5783,7 @@
       <c r="K29" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="L29" s="102"/>
+      <c r="L29" s="101"/>
       <c r="M29" s="25">
         <v>23</v>
       </c>
@@ -5794,7 +5812,7 @@
       <c r="K30" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="L30" s="102"/>
+      <c r="L30" s="101"/>
       <c r="M30" s="25">
         <v>10</v>
       </c>
@@ -5823,7 +5841,7 @@
       <c r="K31" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="L31" s="102"/>
+      <c r="L31" s="101"/>
       <c r="M31" s="25">
         <v>10</v>
       </c>
@@ -5846,13 +5864,13 @@
       <c r="I32" s="62">
         <v>30</v>
       </c>
-      <c r="J32" s="111" t="s">
+      <c r="J32" s="110" t="s">
         <v>217</v>
       </c>
       <c r="K32" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="L32" s="102"/>
+      <c r="L32" s="101"/>
       <c r="M32" s="25">
         <v>10</v>
       </c>
@@ -5891,22 +5909,22 @@
     </row>
     <row r="34" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L34" s="63"/>
-      <c r="M34" s="108">
+      <c r="M34" s="107">
         <v>11</v>
       </c>
-      <c r="N34" s="109" t="s">
+      <c r="N34" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="O34" s="109" t="s">
+      <c r="O34" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="109" t="s">
+      <c r="P34" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="110"/>
+      <c r="Q34" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="109"/>
     </row>
     <row r="35" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L35" s="63"/>
@@ -6008,22 +6026,22 @@
       <c r="M40" s="36">
         <v>5</v>
       </c>
-      <c r="N40" s="88" t="s">
+      <c r="N40" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="O40" s="88" t="s">
+      <c r="O40" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P40" s="88" t="s">
+      <c r="P40" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Q40" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="89"/>
+      <c r="Q40" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="88"/>
     </row>
     <row r="41" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L41" s="90"/>
+      <c r="L41" s="89"/>
       <c r="M41" s="41">
         <v>15</v>
       </c>
@@ -6197,22 +6215,22 @@
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L50" s="63"/>
-      <c r="M50" s="108">
+      <c r="M50" s="107">
         <v>11</v>
       </c>
-      <c r="N50" s="109" t="s">
+      <c r="N50" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="O50" s="109" t="s">
+      <c r="O50" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P50" s="109" t="s">
+      <c r="P50" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="110"/>
+      <c r="Q50" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="109"/>
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="63"/>
@@ -6314,22 +6332,22 @@
       <c r="M56" s="36">
         <v>5</v>
       </c>
-      <c r="N56" s="88" t="s">
+      <c r="N56" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="O56" s="88" t="s">
+      <c r="O56" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P56" s="88" t="s">
+      <c r="P56" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Q56" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="R56" s="89"/>
+      <c r="Q56" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="88"/>
     </row>
     <row r="57" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L57" s="90"/>
+      <c r="L57" s="89"/>
       <c r="M57" s="41">
         <v>16</v>
       </c>
@@ -6503,22 +6521,22 @@
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L66" s="63"/>
-      <c r="M66" s="108">
+      <c r="M66" s="107">
         <v>11</v>
       </c>
-      <c r="N66" s="109" t="s">
+      <c r="N66" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="O66" s="109" t="s">
+      <c r="O66" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P66" s="109" t="s">
+      <c r="P66" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q66" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R66" s="110"/>
+      <c r="Q66" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="109"/>
     </row>
     <row r="67" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L67" s="63"/>
@@ -6620,22 +6638,22 @@
       <c r="M72" s="36">
         <v>5</v>
       </c>
-      <c r="N72" s="88" t="s">
+      <c r="N72" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="O72" s="88" t="s">
+      <c r="O72" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="88" t="s">
+      <c r="P72" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Q72" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="R72" s="89"/>
+      <c r="Q72" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="R72" s="88"/>
     </row>
     <row r="73" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L73" s="90"/>
+      <c r="L73" s="89"/>
       <c r="M73" s="41">
         <v>17</v>
       </c>
@@ -6809,22 +6827,22 @@
     </row>
     <row r="82" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L82" s="63"/>
-      <c r="M82" s="108">
+      <c r="M82" s="107">
         <v>11</v>
       </c>
-      <c r="N82" s="109" t="s">
+      <c r="N82" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="O82" s="109" t="s">
+      <c r="O82" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P82" s="109" t="s">
+      <c r="P82" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q82" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R82" s="110"/>
+      <c r="Q82" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R82" s="109"/>
     </row>
     <row r="83" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L83" s="63"/>
@@ -6926,22 +6944,22 @@
       <c r="M88" s="36">
         <v>5</v>
       </c>
-      <c r="N88" s="88" t="s">
+      <c r="N88" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="O88" s="88" t="s">
+      <c r="O88" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P88" s="88" t="s">
+      <c r="P88" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Q88" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="R88" s="89"/>
+      <c r="Q88" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="R88" s="88"/>
     </row>
     <row r="89" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L89" s="90"/>
+      <c r="L89" s="89"/>
       <c r="M89" s="41">
         <v>18</v>
       </c>
@@ -7115,22 +7133,22 @@
     </row>
     <row r="98" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L98" s="63"/>
-      <c r="M98" s="108">
+      <c r="M98" s="107">
         <v>11</v>
       </c>
-      <c r="N98" s="109" t="s">
+      <c r="N98" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="O98" s="109" t="s">
+      <c r="O98" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P98" s="109" t="s">
+      <c r="P98" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q98" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R98" s="110"/>
+      <c r="Q98" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R98" s="109"/>
     </row>
     <row r="99" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L99" s="63"/>
@@ -7232,22 +7250,22 @@
       <c r="M104" s="36">
         <v>5</v>
       </c>
-      <c r="N104" s="88" t="s">
+      <c r="N104" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="O104" s="88" t="s">
+      <c r="O104" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P104" s="88" t="s">
+      <c r="P104" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Q104" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="R104" s="89"/>
+      <c r="Q104" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="R104" s="88"/>
     </row>
     <row r="105" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L105" s="90"/>
+      <c r="L105" s="89"/>
       <c r="M105" s="41">
         <v>19</v>
       </c>
@@ -7421,22 +7439,22 @@
     </row>
     <row r="114" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L114" s="63"/>
-      <c r="M114" s="108">
+      <c r="M114" s="107">
         <v>11</v>
       </c>
-      <c r="N114" s="109" t="s">
+      <c r="N114" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="O114" s="109" t="s">
+      <c r="O114" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P114" s="109" t="s">
+      <c r="P114" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q114" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R114" s="110"/>
+      <c r="Q114" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R114" s="109"/>
     </row>
     <row r="115" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L115" s="63"/>
@@ -7538,22 +7556,22 @@
       <c r="M120" s="36">
         <v>5</v>
       </c>
-      <c r="N120" s="88" t="s">
+      <c r="N120" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="O120" s="88" t="s">
+      <c r="O120" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P120" s="88" t="s">
+      <c r="P120" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Q120" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="R120" s="89"/>
+      <c r="Q120" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="R120" s="88"/>
     </row>
     <row r="121" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L121" s="90"/>
+      <c r="L121" s="89"/>
       <c r="M121" s="41">
         <v>20</v>
       </c>
@@ -7727,22 +7745,22 @@
     </row>
     <row r="130" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L130" s="63"/>
-      <c r="M130" s="108">
+      <c r="M130" s="107">
         <v>11</v>
       </c>
-      <c r="N130" s="109" t="s">
+      <c r="N130" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="O130" s="109" t="s">
+      <c r="O130" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P130" s="109" t="s">
+      <c r="P130" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q130" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R130" s="110"/>
+      <c r="Q130" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R130" s="109"/>
     </row>
     <row r="131" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L131" s="63"/>
@@ -7844,22 +7862,22 @@
       <c r="M136" s="36">
         <v>5</v>
       </c>
-      <c r="N136" s="88" t="s">
+      <c r="N136" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="O136" s="88" t="s">
+      <c r="O136" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="P136" s="88" t="s">
+      <c r="P136" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="Q136" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="R136" s="89"/>
+      <c r="Q136" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="R136" s="88"/>
     </row>
     <row r="137" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L137" s="90"/>
+      <c r="L137" s="89"/>
       <c r="M137" s="41">
         <v>21</v>
       </c>
@@ -8033,22 +8051,22 @@
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="63"/>
-      <c r="M146" s="108">
+      <c r="M146" s="107">
         <v>11</v>
       </c>
-      <c r="N146" s="109" t="s">
+      <c r="N146" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="O146" s="109" t="s">
+      <c r="O146" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P146" s="109" t="s">
+      <c r="P146" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q146" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R146" s="110"/>
+      <c r="Q146" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R146" s="109"/>
     </row>
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="63"/>
@@ -8223,30 +8241,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -8257,14 +8275,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -8274,11 +8292,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8290,29 +8308,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8780,22 +8798,22 @@
         <v>36</v>
       </c>
       <c r="L18" s="63"/>
-      <c r="M18" s="118">
+      <c r="M18" s="117">
         <v>22</v>
       </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
+      <c r="N18" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="P18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
+      <c r="Q18" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="48">
@@ -8995,30 +9013,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -9029,14 +9047,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -9046,11 +9064,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9062,29 +9080,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9631,30 +9649,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -9665,14 +9683,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -9682,11 +9700,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9698,29 +9716,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10433,30 +10451,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -10467,14 +10485,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -10484,11 +10502,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10500,29 +10518,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11121,30 +11139,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -11155,14 +11173,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -11172,11 +11190,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11188,29 +11206,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11275,20 +11293,20 @@
         <v>4</v>
       </c>
       <c r="F9" s="82"/>
-      <c r="G9" s="93" t="s">
+      <c r="G9" s="92" t="s">
         <v>281</v>
       </c>
       <c r="H9" s="63"/>
       <c r="I9" s="51">
         <v>11</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="106" t="s">
+      <c r="K9" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="91"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="41">
         <v>16</v>
       </c>
@@ -11322,7 +11340,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="94"/>
+      <c r="G10" s="93"/>
       <c r="H10" s="63"/>
       <c r="I10" s="38">
         <v>12</v>
@@ -11333,7 +11351,7 @@
       <c r="K10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="91"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="25">
         <v>11</v>
       </c>
@@ -11365,7 +11383,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="94"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="63"/>
       <c r="I11" s="38">
         <v>13</v>
@@ -11376,7 +11394,7 @@
       <c r="K11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="91"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="25">
         <v>12</v>
       </c>
@@ -11408,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="27"/>
-      <c r="G12" s="94"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="63"/>
       <c r="I12" s="38">
         <v>14</v>
@@ -11419,7 +11437,7 @@
       <c r="K12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="91"/>
+      <c r="L12" s="90"/>
       <c r="M12" s="25">
         <v>17</v>
       </c>
@@ -11438,7 +11456,7 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="95">
+      <c r="B13" s="94">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
@@ -11450,8 +11468,8 @@
       <c r="E13" s="48">
         <v>1</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="96"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="63"/>
       <c r="I13" s="38">
         <v>15</v>
@@ -11481,7 +11499,7 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="95">
+      <c r="B14" s="94">
         <v>6</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -11493,8 +11511,8 @@
       <c r="E14" s="48">
         <v>1</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="96"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="63"/>
       <c r="I14" s="38">
         <v>16</v>
@@ -11524,7 +11542,7 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="95">
+      <c r="B15" s="94">
         <v>7</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -11536,8 +11554,8 @@
       <c r="E15" s="48">
         <v>22</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="63"/>
       <c r="I15" s="38">
         <v>17</v>
@@ -11567,7 +11585,7 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="95">
+      <c r="B16" s="94">
         <v>8</v>
       </c>
       <c r="C16" s="48" t="s">
@@ -11579,13 +11597,13 @@
       <c r="E16" s="48">
         <v>22</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="96"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="64"/>
       <c r="I16" s="36">
         <v>18</v>
       </c>
-      <c r="J16" s="111" t="s">
+      <c r="J16" s="110" t="s">
         <v>235</v>
       </c>
       <c r="K16" s="77" t="s">
@@ -11610,7 +11628,7 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="95">
+      <c r="B17" s="94">
         <v>9</v>
       </c>
       <c r="C17" s="48" t="s">
@@ -11622,8 +11640,8 @@
       <c r="E17" s="48">
         <v>22</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="95"/>
       <c r="J17" s="58"/>
       <c r="L17" s="47"/>
       <c r="M17" s="25">
@@ -11644,37 +11662,37 @@
       <c r="R17" s="42"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="97">
+      <c r="B18" s="96">
         <v>10</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="97" t="s">
         <v>273</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="97">
         <v>1</v>
       </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="99"/>
       <c r="L18" s="47"/>
-      <c r="M18" s="108">
+      <c r="M18" s="107">
         <v>15</v>
       </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
+      <c r="N18" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="P18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
+      <c r="Q18" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L19" s="47"/>
@@ -11849,30 +11867,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -11883,14 +11901,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -11900,11 +11918,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11916,29 +11934,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12010,13 +12028,13 @@
       <c r="I9" s="51">
         <v>4</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="106" t="s">
+      <c r="K9" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="91"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="41">
         <v>9</v>
       </c>
@@ -12061,7 +12079,7 @@
       <c r="K10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="91"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="25">
         <v>4</v>
       </c>
@@ -12083,17 +12101,17 @@
       <c r="B11" s="83">
         <v>3</v>
       </c>
-      <c r="C11" s="112" t="s">
+      <c r="C11" s="111" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="112">
+      <c r="E11" s="111">
         <v>40</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="117"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
       <c r="H11" s="63"/>
       <c r="I11" s="38">
         <v>6</v>
@@ -12104,7 +12122,7 @@
       <c r="K11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="91"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="25">
         <v>5</v>
       </c>
@@ -12133,7 +12151,7 @@
       <c r="K12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="91"/>
+      <c r="L12" s="90"/>
       <c r="M12" s="25">
         <v>10</v>
       </c>
@@ -12243,7 +12261,7 @@
       <c r="I16" s="36">
         <v>11</v>
       </c>
-      <c r="J16" s="111" t="s">
+      <c r="J16" s="110" t="s">
         <v>235</v>
       </c>
       <c r="K16" s="77" t="s">
@@ -12289,22 +12307,22 @@
     </row>
     <row r="18" spans="10:18" x14ac:dyDescent="0.2">
       <c r="L18" s="47"/>
-      <c r="M18" s="108">
+      <c r="M18" s="107">
         <v>8</v>
       </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
+      <c r="N18" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="P18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
+      <c r="Q18" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="10:18" x14ac:dyDescent="0.2">
       <c r="L19" s="47"/>
@@ -12479,30 +12497,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -12513,14 +12531,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -12530,11 +12548,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12546,29 +12564,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12633,18 +12651,18 @@
         <v>18</v>
       </c>
       <c r="F9" s="82"/>
-      <c r="G9" s="93"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="63"/>
       <c r="I9" s="51">
         <v>14</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="106" t="s">
+      <c r="K9" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="91"/>
+      <c r="L9" s="90"/>
       <c r="M9" s="41">
         <v>19</v>
       </c>
@@ -12678,7 +12696,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="93" t="s">
         <v>281</v>
       </c>
       <c r="H10" s="63"/>
@@ -12691,7 +12709,7 @@
       <c r="K10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="91"/>
+      <c r="L10" s="90"/>
       <c r="M10" s="31">
         <v>14</v>
       </c>
@@ -12723,7 +12741,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="94"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="63"/>
       <c r="I11" s="38">
         <v>16</v>
@@ -12734,7 +12752,7 @@
       <c r="K11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="91"/>
+      <c r="L11" s="90"/>
       <c r="M11" s="31">
         <v>15</v>
       </c>
@@ -12766,7 +12784,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="27"/>
-      <c r="G12" s="94"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="63"/>
       <c r="I12" s="38">
         <v>17</v>
@@ -12777,7 +12795,7 @@
       <c r="K12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="91"/>
+      <c r="L12" s="90"/>
       <c r="M12" s="25">
         <v>20</v>
       </c>
@@ -12796,7 +12814,7 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="95">
+      <c r="B13" s="94">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
@@ -12808,8 +12826,8 @@
       <c r="E13" s="48">
         <v>30</v>
       </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="96"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="95"/>
       <c r="H13" s="63"/>
       <c r="I13" s="38">
         <v>18</v>
@@ -12839,7 +12857,7 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="95">
+      <c r="B14" s="94">
         <v>6</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -12851,8 +12869,8 @@
       <c r="E14" s="48">
         <v>30</v>
       </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="96"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="95"/>
       <c r="H14" s="63"/>
       <c r="I14" s="38">
         <v>19</v>
@@ -12882,7 +12900,7 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="95">
+      <c r="B15" s="94">
         <v>7</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -12894,8 +12912,8 @@
       <c r="E15" s="48">
         <v>22</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="63"/>
       <c r="I15" s="38">
         <v>20</v>
@@ -12925,7 +12943,7 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="95">
+      <c r="B16" s="94">
         <v>8</v>
       </c>
       <c r="C16" s="48" t="s">
@@ -12937,13 +12955,13 @@
       <c r="E16" s="48">
         <v>7</v>
       </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="96"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="95"/>
       <c r="H16" s="64"/>
       <c r="I16" s="36">
         <v>21</v>
       </c>
-      <c r="J16" s="111" t="s">
+      <c r="J16" s="110" t="s">
         <v>235</v>
       </c>
       <c r="K16" s="77" t="s">
@@ -12968,7 +12986,7 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="95">
+      <c r="B17" s="94">
         <v>9</v>
       </c>
       <c r="C17" s="48" t="s">
@@ -12980,8 +12998,8 @@
       <c r="E17" s="48">
         <v>30</v>
       </c>
-      <c r="F17" s="92"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="95"/>
       <c r="J17" s="58"/>
       <c r="L17" s="47"/>
       <c r="M17" s="25">
@@ -13002,7 +13020,7 @@
       <c r="R17" s="42"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="95">
+      <c r="B18" s="94">
         <v>10</v>
       </c>
       <c r="C18" s="48" t="s">
@@ -13014,28 +13032,28 @@
       <c r="E18" s="48">
         <v>7</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="96"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="95"/>
       <c r="L18" s="47"/>
-      <c r="M18" s="108">
+      <c r="M18" s="107">
         <v>18</v>
       </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
+      <c r="N18" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="P18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
+      <c r="Q18" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="95">
+      <c r="B19" s="94">
         <v>11</v>
       </c>
       <c r="C19" s="48" t="s">
@@ -13047,8 +13065,8 @@
       <c r="E19" s="48">
         <v>30</v>
       </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="96"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="95"/>
       <c r="L19" s="47"/>
       <c r="M19" s="25">
         <v>16</v>
@@ -13068,7 +13086,7 @@
       <c r="R19" s="42"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="95">
+      <c r="B20" s="94">
         <v>12</v>
       </c>
       <c r="C20" s="48" t="s">
@@ -13080,8 +13098,8 @@
       <c r="E20" s="48">
         <v>22</v>
       </c>
-      <c r="F20" s="92"/>
-      <c r="G20" s="96"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="95"/>
       <c r="L20" s="47"/>
       <c r="M20" s="25">
         <v>2</v>
@@ -13101,20 +13119,20 @@
       <c r="R20" s="39"/>
     </row>
     <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="97">
+      <c r="B21" s="96">
         <v>13</v>
       </c>
-      <c r="C21" s="98" t="s">
+      <c r="C21" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="98" t="s">
+      <c r="D21" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="97">
         <v>7</v>
       </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="99"/>
       <c r="L21" s="47"/>
       <c r="M21" s="38">
         <v>6</v>
@@ -13249,30 +13267,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -13283,14 +13301,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -13300,11 +13318,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13316,29 +13334,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13410,10 +13428,10 @@
       <c r="I9" s="65">
         <v>3</v>
       </c>
-      <c r="J9" s="105" t="s">
+      <c r="J9" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="114" t="s">
+      <c r="K9" s="113" t="s">
         <v>42</v>
       </c>
       <c r="L9" s="74"/>
@@ -13440,17 +13458,17 @@
       <c r="B10" s="83">
         <v>2</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="112">
+      <c r="E10" s="111">
         <v>30</v>
       </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="117"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="116"/>
       <c r="H10" s="63"/>
       <c r="I10" s="61">
         <v>4</v>
@@ -13629,10 +13647,10 @@
       <c r="I16" s="62">
         <v>10</v>
       </c>
-      <c r="J16" s="111" t="s">
+      <c r="J16" s="110" t="s">
         <v>235</v>
       </c>
-      <c r="K16" s="115" t="s">
+      <c r="K16" s="114" t="s">
         <v>242</v>
       </c>
       <c r="L16" s="63"/>
@@ -13674,22 +13692,22 @@
     </row>
     <row r="18" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L18" s="63"/>
-      <c r="M18" s="108">
+      <c r="M18" s="107">
         <v>7</v>
       </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
+      <c r="N18" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="P18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
+      <c r="Q18" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L19" s="63"/>
@@ -13826,7 +13844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
@@ -13864,30 +13882,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -13898,14 +13916,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -13915,11 +13933,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13931,29 +13949,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14337,22 +14355,22 @@
         <v>36</v>
       </c>
       <c r="L18" s="50"/>
-      <c r="M18" s="108">
+      <c r="M18" s="107">
         <v>16</v>
       </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
+      <c r="N18" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="P18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
+      <c r="Q18" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="64"/>
@@ -14500,8 +14518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14538,30 +14556,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -14572,14 +14590,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -14589,11 +14607,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14605,29 +14623,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14685,13 +14703,15 @@
       <c r="C9" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="81" t="s">
+        <v>282</v>
+      </c>
       <c r="E9" s="81"/>
       <c r="F9" s="82"/>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="47"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="51">
         <v>39</v>
       </c>
@@ -14728,11 +14748,13 @@
       <c r="C10" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="35" t="s">
+        <v>283</v>
+      </c>
       <c r="E10" s="35"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="47"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="38">
         <v>40</v>
       </c>
@@ -14767,11 +14789,13 @@
       <c r="C11" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="35" t="s">
+        <v>284</v>
+      </c>
       <c r="E11" s="35"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="47"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="38">
         <v>41</v>
       </c>
@@ -14806,11 +14830,13 @@
       <c r="C12" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="35" t="s">
+        <v>284</v>
+      </c>
       <c r="E12" s="35"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="47"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="38">
         <v>42</v>
       </c>
@@ -14845,11 +14871,13 @@
       <c r="C13" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E13" s="31"/>
       <c r="F13" s="66"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="47"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="38">
         <v>43</v>
       </c>
@@ -14884,11 +14912,13 @@
       <c r="C14" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E14" s="31"/>
       <c r="F14" s="66"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="47"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="38">
         <v>44</v>
       </c>
@@ -14923,11 +14953,13 @@
       <c r="C15" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="E15" s="31"/>
       <c r="F15" s="66"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="47"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="38">
         <v>45</v>
       </c>
@@ -14962,11 +14994,13 @@
       <c r="C16" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="E16" s="31"/>
       <c r="F16" s="66"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="47"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="50"/>
       <c r="I16" s="38">
         <v>46</v>
       </c>
@@ -15001,11 +15035,13 @@
       <c r="C17" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="E17" s="31"/>
       <c r="F17" s="66"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="47"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="50"/>
       <c r="I17" s="38">
         <v>47</v>
       </c>
@@ -15040,11 +15076,13 @@
       <c r="C18" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E18" s="31"/>
       <c r="F18" s="66"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="47"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="38">
         <v>48</v>
       </c>
@@ -15055,22 +15093,22 @@
         <v>36</v>
       </c>
       <c r="L18" s="50"/>
-      <c r="M18" s="108">
+      <c r="M18" s="107">
         <v>49</v>
       </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
+      <c r="N18" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="P18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
+      <c r="Q18" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25">
@@ -15079,11 +15117,13 @@
       <c r="C19" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="35" t="s">
+        <v>284</v>
+      </c>
       <c r="E19" s="31"/>
       <c r="F19" s="66"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="47"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="50"/>
       <c r="I19" s="36">
         <v>49</v>
       </c>
@@ -15118,11 +15158,13 @@
       <c r="C20" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E20" s="31"/>
       <c r="F20" s="66"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="63"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="101"/>
       <c r="J20" s="58"/>
       <c r="L20" s="47"/>
       <c r="M20" s="25">
@@ -15149,11 +15191,13 @@
       <c r="C21" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="E21" s="31"/>
       <c r="F21" s="66"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="63"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="101"/>
       <c r="L21" s="47"/>
       <c r="M21" s="38">
         <v>46</v>
@@ -15179,11 +15223,13 @@
       <c r="C22" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="E22" s="31"/>
       <c r="F22" s="66"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="63"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="101"/>
       <c r="L22" s="47"/>
       <c r="M22" s="38">
         <v>44</v>
@@ -15209,11 +15255,13 @@
       <c r="C23" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E23" s="31"/>
       <c r="F23" s="66"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="63"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="101"/>
       <c r="L23" s="47"/>
       <c r="M23" s="38">
         <v>47</v>
@@ -15239,11 +15287,13 @@
       <c r="C24" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E24" s="31"/>
       <c r="F24" s="66"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="63"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="101"/>
       <c r="L24" s="56"/>
       <c r="M24" s="36">
         <v>47</v>
@@ -15269,11 +15319,13 @@
       <c r="C25" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E25" s="31"/>
       <c r="F25" s="66"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="63"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="101"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="25">
@@ -15282,11 +15334,13 @@
       <c r="C26" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="35" t="s">
+        <v>283</v>
+      </c>
       <c r="E26" s="31"/>
       <c r="F26" s="66"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="63"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="101"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="25">
@@ -15295,11 +15349,13 @@
       <c r="C27" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="E27" s="31"/>
       <c r="F27" s="66"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="63"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="101"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="25">
@@ -15308,11 +15364,13 @@
       <c r="C28" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="E28" s="31"/>
       <c r="F28" s="66"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="63"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="101"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="25">
@@ -15321,11 +15379,13 @@
       <c r="C29" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="31"/>
+      <c r="D29" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="E29" s="31"/>
       <c r="F29" s="66"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="63"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="101"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B30" s="25">
@@ -15334,11 +15394,13 @@
       <c r="C30" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="31"/>
+      <c r="D30" s="35" t="s">
+        <v>283</v>
+      </c>
       <c r="E30" s="31"/>
       <c r="F30" s="66"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="63"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="101"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="25">
@@ -15347,11 +15409,13 @@
       <c r="C31" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="D31" s="31"/>
+      <c r="D31" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E31" s="31"/>
       <c r="F31" s="66"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="63"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="101"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="25">
@@ -15360,11 +15424,13 @@
       <c r="C32" s="78" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="31"/>
+      <c r="D32" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E32" s="31"/>
       <c r="F32" s="66"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="63"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="101"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="25">
@@ -15373,11 +15439,13 @@
       <c r="C33" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="31"/>
+      <c r="D33" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E33" s="31"/>
       <c r="F33" s="66"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="63"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="101"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="25">
@@ -15386,11 +15454,13 @@
       <c r="C34" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="31"/>
+      <c r="D34" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E34" s="31"/>
       <c r="F34" s="66"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="63"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="101"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="25">
@@ -15399,11 +15469,13 @@
       <c r="C35" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="D35" s="31"/>
+      <c r="D35" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E35" s="31"/>
       <c r="F35" s="66"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="63"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="101"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="25">
@@ -15412,11 +15484,13 @@
       <c r="C36" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="31"/>
+      <c r="D36" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E36" s="31"/>
       <c r="F36" s="66"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="63"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="101"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="25">
@@ -15425,11 +15499,13 @@
       <c r="C37" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E37" s="31"/>
       <c r="F37" s="66"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="63"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="101"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="25">
@@ -15438,11 +15514,13 @@
       <c r="C38" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="D38" s="31"/>
+      <c r="D38" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E38" s="31"/>
       <c r="F38" s="66"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="63"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="101"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="25">
@@ -15451,11 +15529,13 @@
       <c r="C39" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E39" s="31"/>
       <c r="F39" s="66"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="63"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="101"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="25">
@@ -15464,11 +15544,13 @@
       <c r="C40" s="78" t="s">
         <v>175</v>
       </c>
-      <c r="D40" s="31"/>
+      <c r="D40" s="35" t="s">
+        <v>285</v>
+      </c>
       <c r="E40" s="31"/>
       <c r="F40" s="66"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="63"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="101"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="25">
@@ -15477,11 +15559,13 @@
       <c r="C41" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="D41" s="31"/>
+      <c r="D41" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="E41" s="31"/>
       <c r="F41" s="66"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="63"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="101"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="25">
@@ -15490,11 +15574,13 @@
       <c r="C42" s="78" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="31"/>
+      <c r="D42" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="E42" s="31"/>
       <c r="F42" s="66"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="63"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="101"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="25">
@@ -15503,11 +15589,13 @@
       <c r="C43" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="31"/>
+      <c r="D43" s="35" t="s">
+        <v>20</v>
+      </c>
       <c r="E43" s="31"/>
       <c r="F43" s="66"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="63"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="101"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="25">
@@ -15516,11 +15604,13 @@
       <c r="C44" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="D44" s="31"/>
+      <c r="D44" s="35" t="s">
+        <v>286</v>
+      </c>
       <c r="E44" s="31"/>
       <c r="F44" s="66"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="63"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="101"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="25">
@@ -15529,11 +15619,13 @@
       <c r="C45" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="31"/>
+      <c r="D45" s="35" t="s">
+        <v>283</v>
+      </c>
       <c r="E45" s="31"/>
       <c r="F45" s="66"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="63"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="101"/>
     </row>
     <row r="46" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="83">
@@ -15542,11 +15634,13 @@
       <c r="C46" s="84" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="37"/>
+      <c r="D46" s="111" t="s">
+        <v>20</v>
+      </c>
       <c r="E46" s="37"/>
       <c r="F46" s="85"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="64"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15607,30 +15701,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -15641,14 +15735,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -15658,11 +15752,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15674,29 +15768,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16066,22 +16160,22 @@
         <v>36</v>
       </c>
       <c r="L18" s="50"/>
-      <c r="M18" s="108">
+      <c r="M18" s="107">
         <v>14</v>
       </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
+      <c r="N18" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="P18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
+      <c r="Q18" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="64"/>
@@ -16267,30 +16361,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="126" t="s">
+      <c r="D2" s="125" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="127"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="124"/>
-      <c r="J2" s="125"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="131"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="119"/>
+      <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -16301,14 +16395,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="132" t="s">
+      <c r="D4" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="133"/>
-      <c r="F4" s="134"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="111" t="s">
+      <c r="H4" s="119"/>
+      <c r="I4" s="110" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -16318,11 +16412,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16334,29 +16428,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="135" t="s">
+      <c r="B7" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="137" t="s">
+      <c r="I7" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="138"/>
-      <c r="K7" s="139"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="138"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="121" t="s">
+      <c r="M7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="122"/>
-      <c r="R7" s="122"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="121"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16726,22 +16820,22 @@
         <v>72</v>
       </c>
       <c r="L18" s="50"/>
-      <c r="M18" s="108">
+      <c r="M18" s="107">
         <v>14</v>
       </c>
-      <c r="N18" s="109" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="109" t="s">
+      <c r="N18" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="109" t="s">
+      <c r="P18" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="109" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="110"/>
+      <c r="Q18" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="109"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.2">
       <c r="J19" s="58"/>

--- a/CRM/Mapeos_CLS_CRM_V3.1.xlsx
+++ b/CRM/Mapeos_CLS_CRM_V3.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="583" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="583"/>
   </bookViews>
   <sheets>
     <sheet name="PSXLATITEMLANG" sheetId="22" r:id="rId1"/>
@@ -2350,7 +2350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2264" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="287">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -4373,6 +4373,12 @@
     <xf numFmtId="0" fontId="2" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4429,12 +4435,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="85">
@@ -4916,7 +4916,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4926,8 +4926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4964,26 +4964,26 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -4996,11 +4996,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -5013,11 +5013,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5029,29 +5029,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5163,7 +5163,9 @@
         <v>4</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="43"/>
+      <c r="G10" s="43" t="s">
+        <v>281</v>
+      </c>
       <c r="H10" s="63"/>
       <c r="I10" s="61">
         <v>8</v>
@@ -5206,7 +5208,9 @@
         <v>7</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>281</v>
+      </c>
       <c r="H11" s="63"/>
       <c r="I11" s="61">
         <v>9</v>
@@ -8241,28 +8245,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -8275,11 +8279,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -8292,11 +8296,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8308,29 +8312,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9013,28 +9017,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -9047,11 +9051,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -9064,11 +9068,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9080,29 +9084,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9649,28 +9653,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -9683,11 +9687,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -9700,11 +9704,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9716,29 +9720,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10451,28 +10455,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -10485,11 +10489,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -10502,11 +10506,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10518,29 +10522,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11139,28 +11143,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -11173,11 +11177,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -11190,11 +11194,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11206,29 +11210,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11867,28 +11871,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -11901,11 +11905,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -11918,11 +11922,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11934,29 +11938,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12497,28 +12501,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -12531,11 +12535,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -12548,11 +12552,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12564,29 +12568,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13267,28 +13271,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -13301,11 +13305,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -13318,11 +13322,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13334,29 +13338,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13882,28 +13886,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -13916,11 +13920,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -13933,11 +13937,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13949,29 +13953,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14518,7 +14522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -14556,28 +14560,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -14590,11 +14594,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -14607,11 +14611,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14623,29 +14627,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14876,7 +14880,7 @@
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="66"/>
-      <c r="G13" s="139"/>
+      <c r="G13" s="120"/>
       <c r="H13" s="50"/>
       <c r="I13" s="38">
         <v>43</v>
@@ -14917,7 +14921,7 @@
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="66"/>
-      <c r="G14" s="139"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="50"/>
       <c r="I14" s="38">
         <v>44</v>
@@ -14958,7 +14962,7 @@
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="66"/>
-      <c r="G15" s="139"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="50"/>
       <c r="I15" s="38">
         <v>45</v>
@@ -14999,7 +15003,7 @@
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="66"/>
-      <c r="G16" s="139"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="50"/>
       <c r="I16" s="38">
         <v>46</v>
@@ -15040,7 +15044,7 @@
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="66"/>
-      <c r="G17" s="139"/>
+      <c r="G17" s="120"/>
       <c r="H17" s="50"/>
       <c r="I17" s="38">
         <v>47</v>
@@ -15081,7 +15085,7 @@
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="66"/>
-      <c r="G18" s="139"/>
+      <c r="G18" s="120"/>
       <c r="H18" s="50"/>
       <c r="I18" s="38">
         <v>48</v>
@@ -15122,7 +15126,7 @@
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="66"/>
-      <c r="G19" s="139"/>
+      <c r="G19" s="120"/>
       <c r="H19" s="50"/>
       <c r="I19" s="36">
         <v>49</v>
@@ -15163,7 +15167,7 @@
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="66"/>
-      <c r="G20" s="139"/>
+      <c r="G20" s="120"/>
       <c r="H20" s="101"/>
       <c r="J20" s="58"/>
       <c r="L20" s="47"/>
@@ -15196,7 +15200,7 @@
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="66"/>
-      <c r="G21" s="139"/>
+      <c r="G21" s="120"/>
       <c r="H21" s="101"/>
       <c r="L21" s="47"/>
       <c r="M21" s="38">
@@ -15228,7 +15232,7 @@
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="66"/>
-      <c r="G22" s="139"/>
+      <c r="G22" s="120"/>
       <c r="H22" s="101"/>
       <c r="L22" s="47"/>
       <c r="M22" s="38">
@@ -15260,7 +15264,7 @@
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="66"/>
-      <c r="G23" s="139"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="101"/>
       <c r="L23" s="47"/>
       <c r="M23" s="38">
@@ -15292,7 +15296,7 @@
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="66"/>
-      <c r="G24" s="139"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="101"/>
       <c r="L24" s="56"/>
       <c r="M24" s="36">
@@ -15324,7 +15328,7 @@
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="66"/>
-      <c r="G25" s="139"/>
+      <c r="G25" s="120"/>
       <c r="H25" s="101"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
@@ -15339,7 +15343,7 @@
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="66"/>
-      <c r="G26" s="139"/>
+      <c r="G26" s="120"/>
       <c r="H26" s="101"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
@@ -15354,7 +15358,7 @@
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="66"/>
-      <c r="G27" s="139"/>
+      <c r="G27" s="120"/>
       <c r="H27" s="101"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
@@ -15369,7 +15373,7 @@
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="66"/>
-      <c r="G28" s="139"/>
+      <c r="G28" s="120"/>
       <c r="H28" s="101"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
@@ -15384,7 +15388,7 @@
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="66"/>
-      <c r="G29" s="139"/>
+      <c r="G29" s="120"/>
       <c r="H29" s="101"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
@@ -15399,7 +15403,7 @@
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="66"/>
-      <c r="G30" s="139"/>
+      <c r="G30" s="120"/>
       <c r="H30" s="101"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
@@ -15414,7 +15418,7 @@
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="66"/>
-      <c r="G31" s="139"/>
+      <c r="G31" s="120"/>
       <c r="H31" s="101"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
@@ -15429,7 +15433,7 @@
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="66"/>
-      <c r="G32" s="139"/>
+      <c r="G32" s="120"/>
       <c r="H32" s="101"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -15444,7 +15448,7 @@
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="66"/>
-      <c r="G33" s="139"/>
+      <c r="G33" s="120"/>
       <c r="H33" s="101"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -15459,7 +15463,7 @@
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="66"/>
-      <c r="G34" s="139"/>
+      <c r="G34" s="120"/>
       <c r="H34" s="101"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
@@ -15474,7 +15478,7 @@
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="66"/>
-      <c r="G35" s="139"/>
+      <c r="G35" s="120"/>
       <c r="H35" s="101"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -15489,7 +15493,7 @@
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="66"/>
-      <c r="G36" s="139"/>
+      <c r="G36" s="120"/>
       <c r="H36" s="101"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -15504,7 +15508,7 @@
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="66"/>
-      <c r="G37" s="139"/>
+      <c r="G37" s="120"/>
       <c r="H37" s="101"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -15519,7 +15523,7 @@
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="66"/>
-      <c r="G38" s="139"/>
+      <c r="G38" s="120"/>
       <c r="H38" s="101"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -15534,7 +15538,7 @@
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="66"/>
-      <c r="G39" s="139"/>
+      <c r="G39" s="120"/>
       <c r="H39" s="101"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -15549,7 +15553,7 @@
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="66"/>
-      <c r="G40" s="139"/>
+      <c r="G40" s="120"/>
       <c r="H40" s="101"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -15564,7 +15568,7 @@
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="66"/>
-      <c r="G41" s="139"/>
+      <c r="G41" s="120"/>
       <c r="H41" s="101"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -15579,7 +15583,7 @@
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="66"/>
-      <c r="G42" s="139"/>
+      <c r="G42" s="120"/>
       <c r="H42" s="101"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
@@ -15594,7 +15598,7 @@
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="66"/>
-      <c r="G43" s="139"/>
+      <c r="G43" s="120"/>
       <c r="H43" s="101"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -15609,7 +15613,7 @@
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="66"/>
-      <c r="G44" s="139"/>
+      <c r="G44" s="120"/>
       <c r="H44" s="101"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -15624,7 +15628,7 @@
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="66"/>
-      <c r="G45" s="139"/>
+      <c r="G45" s="120"/>
       <c r="H45" s="101"/>
     </row>
     <row r="46" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15639,7 +15643,7 @@
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="85"/>
-      <c r="G46" s="140"/>
+      <c r="G46" s="121"/>
       <c r="H46" s="102"/>
     </row>
   </sheetData>
@@ -15701,28 +15705,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -15735,11 +15739,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -15752,11 +15756,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15768,29 +15772,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16361,28 +16365,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="127"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="122" t="s">
+      <c r="H2" s="124" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="10"/>
       <c r="H3" s="118"/>
       <c r="I3" s="26" t="s">
@@ -16395,11 +16399,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="7"/>
       <c r="H4" s="119"/>
       <c r="I4" s="110" t="s">
@@ -16412,11 +16416,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="131" t="s">
+      <c r="D5" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="132"/>
-      <c r="F5" s="133"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16428,29 +16432,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="136" t="s">
+      <c r="I7" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="140"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="120" t="s">
+      <c r="M7" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="123"/>
+      <c r="Q7" s="123"/>
+      <c r="R7" s="123"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">

--- a/CRM/Mapeos_CLS_CRM_V3.1.xlsx
+++ b/CRM/Mapeos_CLS_CRM_V3.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="583"/>
+    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="583" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="PSXLATITEMLANG" sheetId="22" r:id="rId1"/>
@@ -2350,7 +2350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="291">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3211,6 +3211,18 @@
   </si>
   <si>
     <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -4178,7 +4190,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -4277,7 +4289,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4292,7 +4303,6 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4319,7 +4329,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4358,7 +4367,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4436,6 +4444,13 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -4916,7 +4931,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4926,8 +4941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="F23" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4964,28 +4979,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -4996,14 +5011,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -5013,11 +5028,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5029,29 +5044,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5103,7 +5118,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="79">
+      <c r="B9" s="77">
         <v>1</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -5115,21 +5130,21 @@
       <c r="E9" s="24">
         <v>18</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="65">
+      <c r="H9" s="62"/>
+      <c r="I9" s="64">
         <v>7</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="105" t="s">
+      <c r="K9" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="100"/>
+      <c r="L9" s="97"/>
       <c r="M9" s="41">
         <v>13</v>
       </c>
@@ -5166,8 +5181,8 @@
       <c r="G10" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="61">
+      <c r="H10" s="62"/>
+      <c r="I10" s="60">
         <v>8</v>
       </c>
       <c r="J10" s="26" t="s">
@@ -5176,7 +5191,7 @@
       <c r="K10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="100"/>
+      <c r="L10" s="97"/>
       <c r="M10" s="25">
         <v>7</v>
       </c>
@@ -5211,8 +5226,8 @@
       <c r="G11" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="61">
+      <c r="H11" s="62"/>
+      <c r="I11" s="60">
         <v>9</v>
       </c>
       <c r="J11" s="26" t="s">
@@ -5221,7 +5236,7 @@
       <c r="K11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="100"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="25">
         <v>8</v>
       </c>
@@ -5254,8 +5269,8 @@
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="61">
+      <c r="H12" s="62"/>
+      <c r="I12" s="60">
         <v>10</v>
       </c>
       <c r="J12" s="31" t="s">
@@ -5264,7 +5279,7 @@
       <c r="K12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="100"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="25">
         <v>12</v>
       </c>
@@ -5283,7 +5298,7 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="94">
+      <c r="B13" s="91">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
@@ -5295,10 +5310,10 @@
       <c r="E13" s="48">
         <v>30</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="61">
+      <c r="F13" s="88"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="60">
         <v>11</v>
       </c>
       <c r="J13" s="31" t="s">
@@ -5307,7 +5322,7 @@
       <c r="K13" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="101"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="25">
         <v>22</v>
       </c>
@@ -5326,22 +5341,22 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="96">
+      <c r="B14" s="93">
         <v>6</v>
       </c>
-      <c r="C14" s="97" t="s">
+      <c r="C14" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="94">
         <v>10</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="61">
+      <c r="F14" s="95"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="60">
         <v>12</v>
       </c>
       <c r="J14" s="26" t="s">
@@ -5350,7 +5365,7 @@
       <c r="K14" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="L14" s="101"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="25">
         <v>10</v>
       </c>
@@ -5369,8 +5384,8 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="63"/>
-      <c r="I15" s="61">
+      <c r="H15" s="62"/>
+      <c r="I15" s="60">
         <v>13</v>
       </c>
       <c r="J15" s="26" t="s">
@@ -5379,7 +5394,7 @@
       <c r="K15" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="L15" s="101"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="25">
         <v>10</v>
       </c>
@@ -5398,8 +5413,8 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H16" s="63"/>
-      <c r="I16" s="61">
+      <c r="H16" s="62"/>
+      <c r="I16" s="60">
         <v>14</v>
       </c>
       <c r="J16" s="26" t="s">
@@ -5408,7 +5423,7 @@
       <c r="K16" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="L16" s="101"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="25">
         <v>10</v>
       </c>
@@ -5427,8 +5442,8 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H17" s="63"/>
-      <c r="I17" s="61">
+      <c r="H17" s="62"/>
+      <c r="I17" s="60">
         <v>15</v>
       </c>
       <c r="J17" s="26" t="s">
@@ -5437,9 +5452,9 @@
       <c r="K17" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="L17" s="101"/>
+      <c r="L17" s="98"/>
       <c r="M17" s="25">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>190</v>
@@ -5456,8 +5471,8 @@
       <c r="R17" s="42"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H18" s="63"/>
-      <c r="I18" s="61">
+      <c r="H18" s="62"/>
+      <c r="I18" s="60">
         <v>16</v>
       </c>
       <c r="J18" s="26" t="s">
@@ -5466,27 +5481,27 @@
       <c r="K18" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="107">
-        <v>11</v>
-      </c>
-      <c r="N18" s="108" t="s">
+      <c r="L18" s="98"/>
+      <c r="M18" s="104">
+        <v>31</v>
+      </c>
+      <c r="N18" s="105" t="s">
         <v>190</v>
       </c>
-      <c r="O18" s="108" t="s">
+      <c r="O18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="108" t="s">
+      <c r="P18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="109"/>
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H19" s="63"/>
-      <c r="I19" s="61">
+      <c r="H19" s="62"/>
+      <c r="I19" s="60">
         <v>17</v>
       </c>
       <c r="J19" s="26" t="s">
@@ -5495,7 +5510,7 @@
       <c r="K19" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="L19" s="101"/>
+      <c r="L19" s="98"/>
       <c r="M19" s="25">
         <v>9</v>
       </c>
@@ -5514,8 +5529,8 @@
       <c r="R19" s="42"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H20" s="63"/>
-      <c r="I20" s="61">
+      <c r="H20" s="62"/>
+      <c r="I20" s="60">
         <v>18</v>
       </c>
       <c r="J20" s="26" t="s">
@@ -5524,7 +5539,7 @@
       <c r="K20" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="L20" s="101"/>
+      <c r="L20" s="98"/>
       <c r="M20" s="25">
         <v>2</v>
       </c>
@@ -5543,8 +5558,8 @@
       <c r="R20" s="39"/>
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H21" s="63"/>
-      <c r="I21" s="61">
+      <c r="H21" s="62"/>
+      <c r="I21" s="60">
         <v>19</v>
       </c>
       <c r="J21" s="26" t="s">
@@ -5553,7 +5568,7 @@
       <c r="K21" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="L21" s="101"/>
+      <c r="L21" s="98"/>
       <c r="M21" s="38">
         <v>6</v>
       </c>
@@ -5572,8 +5587,8 @@
       <c r="R21" s="39"/>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H22" s="63"/>
-      <c r="I22" s="61">
+      <c r="H22" s="62"/>
+      <c r="I22" s="60">
         <v>20</v>
       </c>
       <c r="J22" s="26" t="s">
@@ -5582,7 +5597,7 @@
       <c r="K22" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="L22" s="101"/>
+      <c r="L22" s="98"/>
       <c r="M22" s="38">
         <v>9</v>
       </c>
@@ -5601,8 +5616,8 @@
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H23" s="63"/>
-      <c r="I23" s="61">
+      <c r="H23" s="62"/>
+      <c r="I23" s="60">
         <v>21</v>
       </c>
       <c r="J23" s="26" t="s">
@@ -5611,7 +5626,7 @@
       <c r="K23" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="L23" s="101"/>
+      <c r="L23" s="98"/>
       <c r="M23" s="38">
         <v>5</v>
       </c>
@@ -5630,8 +5645,8 @@
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="63"/>
-      <c r="I24" s="61">
+      <c r="H24" s="62"/>
+      <c r="I24" s="60">
         <v>22</v>
       </c>
       <c r="J24" s="26" t="s">
@@ -5640,7 +5655,7 @@
       <c r="K24" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="L24" s="102"/>
+      <c r="L24" s="99"/>
       <c r="M24" s="36">
         <v>5</v>
       </c>
@@ -5659,8 +5674,8 @@
       <c r="R24" s="40"/>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H25" s="63"/>
-      <c r="I25" s="61">
+      <c r="H25" s="62"/>
+      <c r="I25" s="60">
         <v>23</v>
       </c>
       <c r="J25" s="26" t="s">
@@ -5669,7 +5684,7 @@
       <c r="K25" s="53" t="s">
         <v>254</v>
       </c>
-      <c r="L25" s="103"/>
+      <c r="L25" s="100"/>
       <c r="M25" s="41">
         <v>14</v>
       </c>
@@ -5690,8 +5705,8 @@
       </c>
     </row>
     <row r="26" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H26" s="63"/>
-      <c r="I26" s="61">
+      <c r="H26" s="62"/>
+      <c r="I26" s="60">
         <v>24</v>
       </c>
       <c r="J26" s="26" t="s">
@@ -5700,7 +5715,7 @@
       <c r="K26" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="L26" s="101"/>
+      <c r="L26" s="98"/>
       <c r="M26" s="25">
         <v>7</v>
       </c>
@@ -5719,8 +5734,8 @@
       <c r="R26" s="42"/>
     </row>
     <row r="27" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H27" s="63"/>
-      <c r="I27" s="61">
+      <c r="H27" s="62"/>
+      <c r="I27" s="60">
         <v>25</v>
       </c>
       <c r="J27" s="26" t="s">
@@ -5729,7 +5744,7 @@
       <c r="K27" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="L27" s="101"/>
+      <c r="L27" s="98"/>
       <c r="M27" s="25">
         <v>8</v>
       </c>
@@ -5748,8 +5763,8 @@
       <c r="R27" s="42"/>
     </row>
     <row r="28" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H28" s="63"/>
-      <c r="I28" s="61">
+      <c r="H28" s="62"/>
+      <c r="I28" s="60">
         <v>26</v>
       </c>
       <c r="J28" s="26" t="s">
@@ -5758,7 +5773,7 @@
       <c r="K28" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="L28" s="101"/>
+      <c r="L28" s="98"/>
       <c r="M28" s="25">
         <v>12</v>
       </c>
@@ -5777,8 +5792,8 @@
       <c r="R28" s="42"/>
     </row>
     <row r="29" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H29" s="63"/>
-      <c r="I29" s="61">
+      <c r="H29" s="62"/>
+      <c r="I29" s="60">
         <v>27</v>
       </c>
       <c r="J29" s="26" t="s">
@@ -5787,7 +5802,7 @@
       <c r="K29" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="L29" s="101"/>
+      <c r="L29" s="98"/>
       <c r="M29" s="25">
         <v>23</v>
       </c>
@@ -5806,8 +5821,8 @@
       <c r="R29" s="42"/>
     </row>
     <row r="30" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H30" s="63"/>
-      <c r="I30" s="61">
+      <c r="H30" s="62"/>
+      <c r="I30" s="60">
         <v>28</v>
       </c>
       <c r="J30" s="26" t="s">
@@ -5816,7 +5831,7 @@
       <c r="K30" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="L30" s="101"/>
+      <c r="L30" s="98"/>
       <c r="M30" s="25">
         <v>10</v>
       </c>
@@ -5835,8 +5850,8 @@
       <c r="R30" s="42"/>
     </row>
     <row r="31" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H31" s="63"/>
-      <c r="I31" s="61">
+      <c r="H31" s="62"/>
+      <c r="I31" s="60">
         <v>29</v>
       </c>
       <c r="J31" s="26" t="s">
@@ -5845,7 +5860,7 @@
       <c r="K31" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="L31" s="101"/>
+      <c r="L31" s="98"/>
       <c r="M31" s="25">
         <v>10</v>
       </c>
@@ -5863,18 +5878,18 @@
       </c>
       <c r="R31" s="42"/>
     </row>
-    <row r="32" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="64"/>
-      <c r="I32" s="62">
+    <row r="32" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H32" s="62"/>
+      <c r="I32" s="60">
         <v>30</v>
       </c>
-      <c r="J32" s="110" t="s">
+      <c r="J32" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="K32" s="77" t="s">
+      <c r="K32" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="L32" s="101"/>
+      <c r="L32" s="98"/>
       <c r="M32" s="25">
         <v>10</v>
       </c>
@@ -5892,10 +5907,20 @@
       </c>
       <c r="R32" s="42"/>
     </row>
-    <row r="33" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L33" s="63"/>
+    <row r="33" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H33" s="62"/>
+      <c r="I33" s="60">
+        <v>31</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" s="98"/>
       <c r="M33" s="25">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N33" s="34" t="s">
         <v>191</v>
@@ -5911,27 +5936,37 @@
       </c>
       <c r="R33" s="42"/>
     </row>
-    <row r="34" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L34" s="63"/>
-      <c r="M34" s="107">
-        <v>11</v>
-      </c>
-      <c r="N34" s="108" t="s">
+    <row r="34" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="63"/>
+      <c r="I34" s="61">
+        <v>32</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" s="98"/>
+      <c r="M34" s="104">
+        <v>31</v>
+      </c>
+      <c r="N34" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="O34" s="108" t="s">
+      <c r="O34" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="108" t="s">
+      <c r="P34" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q34" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="109"/>
-    </row>
-    <row r="35" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L35" s="63"/>
+      <c r="Q34" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R34" s="106"/>
+    </row>
+    <row r="35" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L35" s="62"/>
       <c r="M35" s="25">
         <v>9</v>
       </c>
@@ -5949,8 +5984,8 @@
       </c>
       <c r="R35" s="42"/>
     </row>
-    <row r="36" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L36" s="63"/>
+    <row r="36" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L36" s="62"/>
       <c r="M36" s="25">
         <v>2</v>
       </c>
@@ -5968,8 +6003,8 @@
       </c>
       <c r="R36" s="39"/>
     </row>
-    <row r="37" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L37" s="63"/>
+    <row r="37" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L37" s="62"/>
       <c r="M37" s="38">
         <v>6</v>
       </c>
@@ -5987,8 +6022,8 @@
       </c>
       <c r="R37" s="39"/>
     </row>
-    <row r="38" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L38" s="63"/>
+    <row r="38" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L38" s="62"/>
       <c r="M38" s="38">
         <v>9</v>
       </c>
@@ -6006,8 +6041,8 @@
       </c>
       <c r="R38" s="39"/>
     </row>
-    <row r="39" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L39" s="63"/>
+    <row r="39" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L39" s="62"/>
       <c r="M39" s="38">
         <v>5</v>
       </c>
@@ -6025,27 +6060,27 @@
       </c>
       <c r="R39" s="39"/>
     </row>
-    <row r="40" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L40" s="64"/>
+    <row r="40" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="63"/>
       <c r="M40" s="36">
         <v>5</v>
       </c>
-      <c r="N40" s="87" t="s">
+      <c r="N40" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="O40" s="87" t="s">
+      <c r="O40" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="P40" s="87" t="s">
+      <c r="P40" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="Q40" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="88"/>
-    </row>
-    <row r="41" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L41" s="89"/>
+      <c r="Q40" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="86"/>
+    </row>
+    <row r="41" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L41" s="87"/>
       <c r="M41" s="41">
         <v>15</v>
       </c>
@@ -6065,8 +6100,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L42" s="63"/>
+    <row r="42" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L42" s="62"/>
       <c r="M42" s="25">
         <v>7</v>
       </c>
@@ -6084,8 +6119,8 @@
       </c>
       <c r="R42" s="42"/>
     </row>
-    <row r="43" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L43" s="63"/>
+    <row r="43" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L43" s="62"/>
       <c r="M43" s="25">
         <v>8</v>
       </c>
@@ -6103,8 +6138,8 @@
       </c>
       <c r="R43" s="42"/>
     </row>
-    <row r="44" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L44" s="63"/>
+    <row r="44" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L44" s="62"/>
       <c r="M44" s="25">
         <v>12</v>
       </c>
@@ -6122,8 +6157,8 @@
       </c>
       <c r="R44" s="42"/>
     </row>
-    <row r="45" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L45" s="63"/>
+    <row r="45" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L45" s="62"/>
       <c r="M45" s="25">
         <v>24</v>
       </c>
@@ -6141,8 +6176,8 @@
       </c>
       <c r="R45" s="42"/>
     </row>
-    <row r="46" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L46" s="63"/>
+    <row r="46" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L46" s="62"/>
       <c r="M46" s="25">
         <v>10</v>
       </c>
@@ -6160,8 +6195,8 @@
       </c>
       <c r="R46" s="42"/>
     </row>
-    <row r="47" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L47" s="63"/>
+    <row r="47" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L47" s="62"/>
       <c r="M47" s="25">
         <v>10</v>
       </c>
@@ -6179,8 +6214,8 @@
       </c>
       <c r="R47" s="42"/>
     </row>
-    <row r="48" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L48" s="63"/>
+    <row r="48" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L48" s="62"/>
       <c r="M48" s="25">
         <v>10</v>
       </c>
@@ -6199,9 +6234,9 @@
       <c r="R48" s="42"/>
     </row>
     <row r="49" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L49" s="63"/>
+      <c r="L49" s="62"/>
       <c r="M49" s="25">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N49" s="34" t="s">
         <v>192</v>
@@ -6218,26 +6253,26 @@
       <c r="R49" s="42"/>
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L50" s="63"/>
-      <c r="M50" s="107">
-        <v>11</v>
-      </c>
-      <c r="N50" s="108" t="s">
+      <c r="L50" s="62"/>
+      <c r="M50" s="104">
+        <v>31</v>
+      </c>
+      <c r="N50" s="105" t="s">
         <v>192</v>
       </c>
-      <c r="O50" s="108" t="s">
+      <c r="O50" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P50" s="108" t="s">
+      <c r="P50" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q50" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="109"/>
+      <c r="Q50" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="106"/>
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L51" s="63"/>
+      <c r="L51" s="62"/>
       <c r="M51" s="25">
         <v>9</v>
       </c>
@@ -6256,7 +6291,7 @@
       <c r="R51" s="42"/>
     </row>
     <row r="52" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L52" s="63"/>
+      <c r="L52" s="62"/>
       <c r="M52" s="25">
         <v>2</v>
       </c>
@@ -6275,7 +6310,7 @@
       <c r="R52" s="39"/>
     </row>
     <row r="53" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L53" s="63"/>
+      <c r="L53" s="62"/>
       <c r="M53" s="38">
         <v>6</v>
       </c>
@@ -6294,7 +6329,7 @@
       <c r="R53" s="39"/>
     </row>
     <row r="54" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L54" s="63"/>
+      <c r="L54" s="62"/>
       <c r="M54" s="38">
         <v>9</v>
       </c>
@@ -6313,7 +6348,7 @@
       <c r="R54" s="39"/>
     </row>
     <row r="55" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L55" s="63"/>
+      <c r="L55" s="62"/>
       <c r="M55" s="38">
         <v>5</v>
       </c>
@@ -6332,26 +6367,26 @@
       <c r="R55" s="39"/>
     </row>
     <row r="56" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L56" s="64"/>
+      <c r="L56" s="63"/>
       <c r="M56" s="36">
         <v>5</v>
       </c>
-      <c r="N56" s="87" t="s">
+      <c r="N56" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="O56" s="87" t="s">
+      <c r="O56" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="P56" s="87" t="s">
+      <c r="P56" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="Q56" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="R56" s="88"/>
+      <c r="Q56" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="R56" s="86"/>
     </row>
     <row r="57" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L57" s="89"/>
+      <c r="L57" s="87"/>
       <c r="M57" s="41">
         <v>16</v>
       </c>
@@ -6372,7 +6407,7 @@
       </c>
     </row>
     <row r="58" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L58" s="63"/>
+      <c r="L58" s="62"/>
       <c r="M58" s="25">
         <v>7</v>
       </c>
@@ -6391,7 +6426,7 @@
       <c r="R58" s="42"/>
     </row>
     <row r="59" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L59" s="63"/>
+      <c r="L59" s="62"/>
       <c r="M59" s="25">
         <v>8</v>
       </c>
@@ -6410,7 +6445,7 @@
       <c r="R59" s="42"/>
     </row>
     <row r="60" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L60" s="63"/>
+      <c r="L60" s="62"/>
       <c r="M60" s="25">
         <v>12</v>
       </c>
@@ -6429,7 +6464,7 @@
       <c r="R60" s="42"/>
     </row>
     <row r="61" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L61" s="63"/>
+      <c r="L61" s="62"/>
       <c r="M61" s="25">
         <v>25</v>
       </c>
@@ -6448,7 +6483,7 @@
       <c r="R61" s="42"/>
     </row>
     <row r="62" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L62" s="63"/>
+      <c r="L62" s="62"/>
       <c r="M62" s="25">
         <v>10</v>
       </c>
@@ -6467,7 +6502,7 @@
       <c r="R62" s="42"/>
     </row>
     <row r="63" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L63" s="63"/>
+      <c r="L63" s="62"/>
       <c r="M63" s="25">
         <v>10</v>
       </c>
@@ -6486,7 +6521,7 @@
       <c r="R63" s="42"/>
     </row>
     <row r="64" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L64" s="63"/>
+      <c r="L64" s="62"/>
       <c r="M64" s="25">
         <v>10</v>
       </c>
@@ -6505,9 +6540,9 @@
       <c r="R64" s="42"/>
     </row>
     <row r="65" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L65" s="63"/>
+      <c r="L65" s="62"/>
       <c r="M65" s="25">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N65" s="34" t="s">
         <v>193</v>
@@ -6524,26 +6559,26 @@
       <c r="R65" s="42"/>
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L66" s="63"/>
-      <c r="M66" s="107">
-        <v>11</v>
-      </c>
-      <c r="N66" s="108" t="s">
+      <c r="L66" s="62"/>
+      <c r="M66" s="104">
+        <v>31</v>
+      </c>
+      <c r="N66" s="105" t="s">
         <v>193</v>
       </c>
-      <c r="O66" s="108" t="s">
+      <c r="O66" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P66" s="108" t="s">
+      <c r="P66" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q66" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R66" s="109"/>
+      <c r="Q66" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R66" s="106"/>
     </row>
     <row r="67" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L67" s="63"/>
+      <c r="L67" s="62"/>
       <c r="M67" s="25">
         <v>9</v>
       </c>
@@ -6562,7 +6597,7 @@
       <c r="R67" s="42"/>
     </row>
     <row r="68" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L68" s="63"/>
+      <c r="L68" s="62"/>
       <c r="M68" s="25">
         <v>2</v>
       </c>
@@ -6581,7 +6616,7 @@
       <c r="R68" s="39"/>
     </row>
     <row r="69" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L69" s="63"/>
+      <c r="L69" s="62"/>
       <c r="M69" s="38">
         <v>6</v>
       </c>
@@ -6600,7 +6635,7 @@
       <c r="R69" s="39"/>
     </row>
     <row r="70" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L70" s="63"/>
+      <c r="L70" s="62"/>
       <c r="M70" s="38">
         <v>9</v>
       </c>
@@ -6619,7 +6654,7 @@
       <c r="R70" s="39"/>
     </row>
     <row r="71" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L71" s="63"/>
+      <c r="L71" s="62"/>
       <c r="M71" s="38">
         <v>5</v>
       </c>
@@ -6638,26 +6673,26 @@
       <c r="R71" s="39"/>
     </row>
     <row r="72" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L72" s="64"/>
+      <c r="L72" s="63"/>
       <c r="M72" s="36">
         <v>5</v>
       </c>
-      <c r="N72" s="87" t="s">
+      <c r="N72" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="O72" s="87" t="s">
+      <c r="O72" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="P72" s="87" t="s">
+      <c r="P72" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="Q72" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="R72" s="88"/>
+      <c r="Q72" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="R72" s="86"/>
     </row>
     <row r="73" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L73" s="89"/>
+      <c r="L73" s="87"/>
       <c r="M73" s="41">
         <v>17</v>
       </c>
@@ -6678,7 +6713,7 @@
       </c>
     </row>
     <row r="74" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L74" s="63"/>
+      <c r="L74" s="62"/>
       <c r="M74" s="25">
         <v>7</v>
       </c>
@@ -6697,7 +6732,7 @@
       <c r="R74" s="42"/>
     </row>
     <row r="75" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L75" s="63"/>
+      <c r="L75" s="62"/>
       <c r="M75" s="25">
         <v>8</v>
       </c>
@@ -6716,7 +6751,7 @@
       <c r="R75" s="42"/>
     </row>
     <row r="76" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L76" s="63"/>
+      <c r="L76" s="62"/>
       <c r="M76" s="25">
         <v>12</v>
       </c>
@@ -6735,7 +6770,7 @@
       <c r="R76" s="42"/>
     </row>
     <row r="77" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L77" s="63"/>
+      <c r="L77" s="62"/>
       <c r="M77" s="25">
         <v>26</v>
       </c>
@@ -6754,7 +6789,7 @@
       <c r="R77" s="42"/>
     </row>
     <row r="78" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L78" s="63"/>
+      <c r="L78" s="62"/>
       <c r="M78" s="25">
         <v>10</v>
       </c>
@@ -6773,7 +6808,7 @@
       <c r="R78" s="42"/>
     </row>
     <row r="79" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L79" s="63"/>
+      <c r="L79" s="62"/>
       <c r="M79" s="25">
         <v>10</v>
       </c>
@@ -6792,7 +6827,7 @@
       <c r="R79" s="42"/>
     </row>
     <row r="80" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L80" s="63"/>
+      <c r="L80" s="62"/>
       <c r="M80" s="25">
         <v>10</v>
       </c>
@@ -6811,9 +6846,9 @@
       <c r="R80" s="42"/>
     </row>
     <row r="81" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L81" s="63"/>
+      <c r="L81" s="62"/>
       <c r="M81" s="25">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N81" s="34" t="s">
         <v>194</v>
@@ -6830,26 +6865,26 @@
       <c r="R81" s="42"/>
     </row>
     <row r="82" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L82" s="63"/>
-      <c r="M82" s="107">
-        <v>11</v>
-      </c>
-      <c r="N82" s="108" t="s">
+      <c r="L82" s="62"/>
+      <c r="M82" s="104">
+        <v>31</v>
+      </c>
+      <c r="N82" s="105" t="s">
         <v>194</v>
       </c>
-      <c r="O82" s="108" t="s">
+      <c r="O82" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P82" s="108" t="s">
+      <c r="P82" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q82" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R82" s="109"/>
+      <c r="Q82" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R82" s="106"/>
     </row>
     <row r="83" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L83" s="63"/>
+      <c r="L83" s="62"/>
       <c r="M83" s="25">
         <v>9</v>
       </c>
@@ -6868,7 +6903,7 @@
       <c r="R83" s="42"/>
     </row>
     <row r="84" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L84" s="63"/>
+      <c r="L84" s="62"/>
       <c r="M84" s="25">
         <v>2</v>
       </c>
@@ -6887,7 +6922,7 @@
       <c r="R84" s="39"/>
     </row>
     <row r="85" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L85" s="63"/>
+      <c r="L85" s="62"/>
       <c r="M85" s="38">
         <v>6</v>
       </c>
@@ -6906,7 +6941,7 @@
       <c r="R85" s="39"/>
     </row>
     <row r="86" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L86" s="63"/>
+      <c r="L86" s="62"/>
       <c r="M86" s="38">
         <v>9</v>
       </c>
@@ -6925,7 +6960,7 @@
       <c r="R86" s="39"/>
     </row>
     <row r="87" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L87" s="63"/>
+      <c r="L87" s="62"/>
       <c r="M87" s="38">
         <v>5</v>
       </c>
@@ -6944,26 +6979,26 @@
       <c r="R87" s="39"/>
     </row>
     <row r="88" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L88" s="64"/>
+      <c r="L88" s="63"/>
       <c r="M88" s="36">
         <v>5</v>
       </c>
-      <c r="N88" s="87" t="s">
+      <c r="N88" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="O88" s="87" t="s">
+      <c r="O88" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="P88" s="87" t="s">
+      <c r="P88" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="Q88" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="R88" s="88"/>
+      <c r="Q88" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="R88" s="86"/>
     </row>
     <row r="89" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L89" s="89"/>
+      <c r="L89" s="87"/>
       <c r="M89" s="41">
         <v>18</v>
       </c>
@@ -6984,7 +7019,7 @@
       </c>
     </row>
     <row r="90" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L90" s="63"/>
+      <c r="L90" s="62"/>
       <c r="M90" s="25">
         <v>7</v>
       </c>
@@ -7003,7 +7038,7 @@
       <c r="R90" s="42"/>
     </row>
     <row r="91" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L91" s="63"/>
+      <c r="L91" s="62"/>
       <c r="M91" s="25">
         <v>8</v>
       </c>
@@ -7022,7 +7057,7 @@
       <c r="R91" s="42"/>
     </row>
     <row r="92" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L92" s="63"/>
+      <c r="L92" s="62"/>
       <c r="M92" s="25">
         <v>12</v>
       </c>
@@ -7041,7 +7076,7 @@
       <c r="R92" s="42"/>
     </row>
     <row r="93" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L93" s="63"/>
+      <c r="L93" s="62"/>
       <c r="M93" s="25">
         <v>27</v>
       </c>
@@ -7060,7 +7095,7 @@
       <c r="R93" s="42"/>
     </row>
     <row r="94" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L94" s="63"/>
+      <c r="L94" s="62"/>
       <c r="M94" s="25">
         <v>10</v>
       </c>
@@ -7079,7 +7114,7 @@
       <c r="R94" s="42"/>
     </row>
     <row r="95" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L95" s="63"/>
+      <c r="L95" s="62"/>
       <c r="M95" s="25">
         <v>10</v>
       </c>
@@ -7098,7 +7133,7 @@
       <c r="R95" s="42"/>
     </row>
     <row r="96" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L96" s="63"/>
+      <c r="L96" s="62"/>
       <c r="M96" s="25">
         <v>10</v>
       </c>
@@ -7117,9 +7152,9 @@
       <c r="R96" s="42"/>
     </row>
     <row r="97" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L97" s="63"/>
+      <c r="L97" s="62"/>
       <c r="M97" s="25">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N97" s="34" t="s">
         <v>195</v>
@@ -7136,26 +7171,26 @@
       <c r="R97" s="42"/>
     </row>
     <row r="98" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L98" s="63"/>
-      <c r="M98" s="107">
-        <v>11</v>
-      </c>
-      <c r="N98" s="108" t="s">
+      <c r="L98" s="62"/>
+      <c r="M98" s="104">
+        <v>31</v>
+      </c>
+      <c r="N98" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="O98" s="108" t="s">
+      <c r="O98" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P98" s="108" t="s">
+      <c r="P98" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q98" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R98" s="109"/>
+      <c r="Q98" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R98" s="106"/>
     </row>
     <row r="99" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L99" s="63"/>
+      <c r="L99" s="62"/>
       <c r="M99" s="25">
         <v>9</v>
       </c>
@@ -7174,7 +7209,7 @@
       <c r="R99" s="42"/>
     </row>
     <row r="100" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L100" s="63"/>
+      <c r="L100" s="62"/>
       <c r="M100" s="25">
         <v>2</v>
       </c>
@@ -7193,7 +7228,7 @@
       <c r="R100" s="39"/>
     </row>
     <row r="101" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L101" s="63"/>
+      <c r="L101" s="62"/>
       <c r="M101" s="38">
         <v>6</v>
       </c>
@@ -7212,7 +7247,7 @@
       <c r="R101" s="39"/>
     </row>
     <row r="102" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L102" s="63"/>
+      <c r="L102" s="62"/>
       <c r="M102" s="38">
         <v>9</v>
       </c>
@@ -7231,7 +7266,7 @@
       <c r="R102" s="39"/>
     </row>
     <row r="103" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L103" s="63"/>
+      <c r="L103" s="62"/>
       <c r="M103" s="38">
         <v>5</v>
       </c>
@@ -7250,26 +7285,26 @@
       <c r="R103" s="39"/>
     </row>
     <row r="104" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L104" s="64"/>
+      <c r="L104" s="63"/>
       <c r="M104" s="36">
         <v>5</v>
       </c>
-      <c r="N104" s="87" t="s">
+      <c r="N104" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="O104" s="87" t="s">
+      <c r="O104" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="P104" s="87" t="s">
+      <c r="P104" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="Q104" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="R104" s="88"/>
+      <c r="Q104" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="R104" s="86"/>
     </row>
     <row r="105" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L105" s="89"/>
+      <c r="L105" s="87"/>
       <c r="M105" s="41">
         <v>19</v>
       </c>
@@ -7290,7 +7325,7 @@
       </c>
     </row>
     <row r="106" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L106" s="63"/>
+      <c r="L106" s="62"/>
       <c r="M106" s="25">
         <v>7</v>
       </c>
@@ -7309,7 +7344,7 @@
       <c r="R106" s="42"/>
     </row>
     <row r="107" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L107" s="63"/>
+      <c r="L107" s="62"/>
       <c r="M107" s="25">
         <v>8</v>
       </c>
@@ -7328,7 +7363,7 @@
       <c r="R107" s="42"/>
     </row>
     <row r="108" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L108" s="63"/>
+      <c r="L108" s="62"/>
       <c r="M108" s="25">
         <v>12</v>
       </c>
@@ -7347,7 +7382,7 @@
       <c r="R108" s="42"/>
     </row>
     <row r="109" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L109" s="63"/>
+      <c r="L109" s="62"/>
       <c r="M109" s="25">
         <v>28</v>
       </c>
@@ -7366,7 +7401,7 @@
       <c r="R109" s="42"/>
     </row>
     <row r="110" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L110" s="63"/>
+      <c r="L110" s="62"/>
       <c r="M110" s="25">
         <v>10</v>
       </c>
@@ -7385,7 +7420,7 @@
       <c r="R110" s="42"/>
     </row>
     <row r="111" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L111" s="63"/>
+      <c r="L111" s="62"/>
       <c r="M111" s="25">
         <v>10</v>
       </c>
@@ -7404,7 +7439,7 @@
       <c r="R111" s="42"/>
     </row>
     <row r="112" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L112" s="63"/>
+      <c r="L112" s="62"/>
       <c r="M112" s="25">
         <v>10</v>
       </c>
@@ -7423,9 +7458,9 @@
       <c r="R112" s="42"/>
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L113" s="63"/>
+      <c r="L113" s="62"/>
       <c r="M113" s="25">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N113" s="34" t="s">
         <v>196</v>
@@ -7442,26 +7477,26 @@
       <c r="R113" s="42"/>
     </row>
     <row r="114" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L114" s="63"/>
-      <c r="M114" s="107">
-        <v>11</v>
-      </c>
-      <c r="N114" s="108" t="s">
+      <c r="L114" s="62"/>
+      <c r="M114" s="104">
+        <v>31</v>
+      </c>
+      <c r="N114" s="105" t="s">
         <v>196</v>
       </c>
-      <c r="O114" s="108" t="s">
+      <c r="O114" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P114" s="108" t="s">
+      <c r="P114" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q114" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R114" s="109"/>
+      <c r="Q114" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R114" s="106"/>
     </row>
     <row r="115" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L115" s="63"/>
+      <c r="L115" s="62"/>
       <c r="M115" s="25">
         <v>9</v>
       </c>
@@ -7480,7 +7515,7 @@
       <c r="R115" s="42"/>
     </row>
     <row r="116" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L116" s="63"/>
+      <c r="L116" s="62"/>
       <c r="M116" s="25">
         <v>2</v>
       </c>
@@ -7499,7 +7534,7 @@
       <c r="R116" s="39"/>
     </row>
     <row r="117" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L117" s="63"/>
+      <c r="L117" s="62"/>
       <c r="M117" s="38">
         <v>6</v>
       </c>
@@ -7518,7 +7553,7 @@
       <c r="R117" s="39"/>
     </row>
     <row r="118" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L118" s="63"/>
+      <c r="L118" s="62"/>
       <c r="M118" s="38">
         <v>9</v>
       </c>
@@ -7537,7 +7572,7 @@
       <c r="R118" s="39"/>
     </row>
     <row r="119" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L119" s="63"/>
+      <c r="L119" s="62"/>
       <c r="M119" s="38">
         <v>5</v>
       </c>
@@ -7556,26 +7591,26 @@
       <c r="R119" s="39"/>
     </row>
     <row r="120" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L120" s="64"/>
+      <c r="L120" s="63"/>
       <c r="M120" s="36">
         <v>5</v>
       </c>
-      <c r="N120" s="87" t="s">
+      <c r="N120" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="O120" s="87" t="s">
+      <c r="O120" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="P120" s="87" t="s">
+      <c r="P120" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="Q120" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="R120" s="88"/>
+      <c r="Q120" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="R120" s="86"/>
     </row>
     <row r="121" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L121" s="89"/>
+      <c r="L121" s="87"/>
       <c r="M121" s="41">
         <v>20</v>
       </c>
@@ -7596,7 +7631,7 @@
       </c>
     </row>
     <row r="122" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L122" s="63"/>
+      <c r="L122" s="62"/>
       <c r="M122" s="25">
         <v>7</v>
       </c>
@@ -7615,7 +7650,7 @@
       <c r="R122" s="42"/>
     </row>
     <row r="123" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L123" s="63"/>
+      <c r="L123" s="62"/>
       <c r="M123" s="25">
         <v>8</v>
       </c>
@@ -7634,7 +7669,7 @@
       <c r="R123" s="42"/>
     </row>
     <row r="124" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L124" s="63"/>
+      <c r="L124" s="62"/>
       <c r="M124" s="25">
         <v>12</v>
       </c>
@@ -7653,7 +7688,7 @@
       <c r="R124" s="42"/>
     </row>
     <row r="125" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L125" s="63"/>
+      <c r="L125" s="62"/>
       <c r="M125" s="25">
         <v>29</v>
       </c>
@@ -7672,7 +7707,7 @@
       <c r="R125" s="42"/>
     </row>
     <row r="126" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L126" s="63"/>
+      <c r="L126" s="62"/>
       <c r="M126" s="25">
         <v>10</v>
       </c>
@@ -7691,7 +7726,7 @@
       <c r="R126" s="42"/>
     </row>
     <row r="127" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L127" s="63"/>
+      <c r="L127" s="62"/>
       <c r="M127" s="25">
         <v>10</v>
       </c>
@@ -7710,7 +7745,7 @@
       <c r="R127" s="42"/>
     </row>
     <row r="128" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L128" s="63"/>
+      <c r="L128" s="62"/>
       <c r="M128" s="25">
         <v>10</v>
       </c>
@@ -7729,9 +7764,9 @@
       <c r="R128" s="42"/>
     </row>
     <row r="129" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L129" s="63"/>
+      <c r="L129" s="62"/>
       <c r="M129" s="25">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N129" s="34" t="s">
         <v>197</v>
@@ -7748,26 +7783,26 @@
       <c r="R129" s="42"/>
     </row>
     <row r="130" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L130" s="63"/>
-      <c r="M130" s="107">
-        <v>11</v>
-      </c>
-      <c r="N130" s="108" t="s">
+      <c r="L130" s="62"/>
+      <c r="M130" s="104">
+        <v>31</v>
+      </c>
+      <c r="N130" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="O130" s="108" t="s">
+      <c r="O130" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P130" s="108" t="s">
+      <c r="P130" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q130" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R130" s="109"/>
+      <c r="Q130" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R130" s="106"/>
     </row>
     <row r="131" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L131" s="63"/>
+      <c r="L131" s="62"/>
       <c r="M131" s="25">
         <v>9</v>
       </c>
@@ -7786,7 +7821,7 @@
       <c r="R131" s="42"/>
     </row>
     <row r="132" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L132" s="63"/>
+      <c r="L132" s="62"/>
       <c r="M132" s="25">
         <v>2</v>
       </c>
@@ -7805,7 +7840,7 @@
       <c r="R132" s="39"/>
     </row>
     <row r="133" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L133" s="63"/>
+      <c r="L133" s="62"/>
       <c r="M133" s="38">
         <v>6</v>
       </c>
@@ -7824,7 +7859,7 @@
       <c r="R133" s="39"/>
     </row>
     <row r="134" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L134" s="63"/>
+      <c r="L134" s="62"/>
       <c r="M134" s="38">
         <v>9</v>
       </c>
@@ -7843,7 +7878,7 @@
       <c r="R134" s="39"/>
     </row>
     <row r="135" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L135" s="63"/>
+      <c r="L135" s="62"/>
       <c r="M135" s="38">
         <v>5</v>
       </c>
@@ -7862,26 +7897,26 @@
       <c r="R135" s="39"/>
     </row>
     <row r="136" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L136" s="64"/>
+      <c r="L136" s="63"/>
       <c r="M136" s="36">
         <v>5</v>
       </c>
-      <c r="N136" s="87" t="s">
+      <c r="N136" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="O136" s="87" t="s">
+      <c r="O136" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="P136" s="87" t="s">
+      <c r="P136" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="Q136" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="R136" s="88"/>
+      <c r="Q136" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="R136" s="86"/>
     </row>
     <row r="137" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L137" s="89"/>
+      <c r="L137" s="87"/>
       <c r="M137" s="41">
         <v>21</v>
       </c>
@@ -7902,7 +7937,7 @@
       </c>
     </row>
     <row r="138" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L138" s="63"/>
+      <c r="L138" s="62"/>
       <c r="M138" s="25">
         <v>7</v>
       </c>
@@ -7921,7 +7956,7 @@
       <c r="R138" s="42"/>
     </row>
     <row r="139" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L139" s="63"/>
+      <c r="L139" s="62"/>
       <c r="M139" s="25">
         <v>8</v>
       </c>
@@ -7940,7 +7975,7 @@
       <c r="R139" s="42"/>
     </row>
     <row r="140" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L140" s="63"/>
+      <c r="L140" s="62"/>
       <c r="M140" s="25">
         <v>12</v>
       </c>
@@ -7959,7 +7994,7 @@
       <c r="R140" s="42"/>
     </row>
     <row r="141" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L141" s="63"/>
+      <c r="L141" s="62"/>
       <c r="M141" s="25">
         <v>30</v>
       </c>
@@ -7978,7 +8013,7 @@
       <c r="R141" s="42"/>
     </row>
     <row r="142" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L142" s="63"/>
+      <c r="L142" s="62"/>
       <c r="M142" s="25">
         <v>10</v>
       </c>
@@ -7997,7 +8032,7 @@
       <c r="R142" s="42"/>
     </row>
     <row r="143" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L143" s="63"/>
+      <c r="L143" s="62"/>
       <c r="M143" s="25">
         <v>10</v>
       </c>
@@ -8016,7 +8051,7 @@
       <c r="R143" s="42"/>
     </row>
     <row r="144" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L144" s="63"/>
+      <c r="L144" s="62"/>
       <c r="M144" s="25">
         <v>10</v>
       </c>
@@ -8035,9 +8070,9 @@
       <c r="R144" s="42"/>
     </row>
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L145" s="63"/>
+      <c r="L145" s="62"/>
       <c r="M145" s="25">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N145" s="34" t="s">
         <v>198</v>
@@ -8054,26 +8089,26 @@
       <c r="R145" s="42"/>
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L146" s="63"/>
-      <c r="M146" s="107">
-        <v>11</v>
-      </c>
-      <c r="N146" s="108" t="s">
+      <c r="L146" s="62"/>
+      <c r="M146" s="104">
+        <v>31</v>
+      </c>
+      <c r="N146" s="105" t="s">
         <v>198</v>
       </c>
-      <c r="O146" s="108" t="s">
+      <c r="O146" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P146" s="108" t="s">
+      <c r="P146" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q146" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R146" s="109"/>
+      <c r="Q146" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R146" s="106"/>
     </row>
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L147" s="63"/>
+      <c r="L147" s="62"/>
       <c r="M147" s="25">
         <v>9</v>
       </c>
@@ -8092,7 +8127,7 @@
       <c r="R147" s="42"/>
     </row>
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L148" s="63"/>
+      <c r="L148" s="62"/>
       <c r="M148" s="25">
         <v>2</v>
       </c>
@@ -8111,7 +8146,7 @@
       <c r="R148" s="39"/>
     </row>
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L149" s="63"/>
+      <c r="L149" s="62"/>
       <c r="M149" s="38">
         <v>6</v>
       </c>
@@ -8130,7 +8165,7 @@
       <c r="R149" s="39"/>
     </row>
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L150" s="63"/>
+      <c r="L150" s="62"/>
       <c r="M150" s="38">
         <v>9</v>
       </c>
@@ -8149,7 +8184,7 @@
       <c r="R150" s="39"/>
     </row>
     <row r="151" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L151" s="63"/>
+      <c r="L151" s="62"/>
       <c r="M151" s="38">
         <v>5</v>
       </c>
@@ -8168,7 +8203,7 @@
       <c r="R151" s="39"/>
     </row>
     <row r="152" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L152" s="64"/>
+      <c r="L152" s="63"/>
       <c r="M152" s="36">
         <v>5</v>
       </c>
@@ -8207,8 +8242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8245,30 +8280,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -8279,14 +8314,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -8296,11 +8331,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -8312,29 +8347,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8399,21 +8434,21 @@
         <v>3</v>
       </c>
       <c r="F9" s="35"/>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="60">
+      <c r="H9" s="62"/>
+      <c r="I9" s="139">
         <v>12</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="72">
+      <c r="L9" s="97"/>
+      <c r="M9" s="70">
         <v>12</v>
       </c>
       <c r="N9" s="45" t="s">
@@ -8446,19 +8481,19 @@
         <v>7</v>
       </c>
       <c r="F10" s="35"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="60">
+      <c r="G10" s="58"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="59">
         <v>13</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="74"/>
-      <c r="M10" s="73">
+      <c r="L10" s="97"/>
+      <c r="M10" s="71">
         <v>13</v>
       </c>
       <c r="N10" s="34" t="s">
@@ -8489,19 +8524,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="35"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="60">
+      <c r="G11" s="58"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="59">
         <v>14</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="74"/>
-      <c r="M11" s="73">
+      <c r="L11" s="97"/>
+      <c r="M11" s="71">
         <v>14</v>
       </c>
       <c r="N11" s="34" t="s">
@@ -8531,20 +8566,20 @@
       <c r="E12" s="35">
         <v>30</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="61">
+      <c r="F12" s="65"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="60">
         <v>15</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="74"/>
-      <c r="M12" s="73">
+      <c r="L12" s="97"/>
+      <c r="M12" s="71">
         <v>15</v>
       </c>
       <c r="N12" s="34" t="s">
@@ -8574,20 +8609,20 @@
       <c r="E13" s="35">
         <v>10</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="61">
+      <c r="F13" s="65"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="60">
         <v>16</v>
       </c>
       <c r="J13" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="73">
+      <c r="L13" s="98"/>
+      <c r="M13" s="71">
         <v>16</v>
       </c>
       <c r="N13" s="34" t="s">
@@ -8617,20 +8652,20 @@
       <c r="E14" s="35">
         <v>3</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="61">
+      <c r="F14" s="65"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="60">
         <v>17</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="73">
+      <c r="L14" s="98"/>
+      <c r="M14" s="71">
         <v>21</v>
       </c>
       <c r="N14" s="34" t="s">
@@ -8660,20 +8695,20 @@
       <c r="E15" s="35">
         <v>4</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="61">
+      <c r="F15" s="65"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="60">
         <v>18</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="73">
+      <c r="L15" s="98"/>
+      <c r="M15" s="71">
         <v>21</v>
       </c>
       <c r="N15" s="34" t="s">
@@ -8703,20 +8738,20 @@
       <c r="E16" s="35">
         <v>22</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="61">
+      <c r="F16" s="65"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="60">
         <v>19</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="69" t="s">
+      <c r="K16" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="73">
+      <c r="L16" s="98"/>
+      <c r="M16" s="71">
         <v>21</v>
       </c>
       <c r="N16" s="34" t="s">
@@ -8746,21 +8781,21 @@
       <c r="E17" s="35">
         <v>22</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="61">
+      <c r="F17" s="65"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="60">
         <v>20</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="69" t="s">
+      <c r="K17" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="73">
-        <v>13</v>
+      <c r="L17" s="98"/>
+      <c r="M17" s="71">
+        <v>23</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -8789,37 +8824,37 @@
       <c r="E18" s="35">
         <v>22</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="61">
+      <c r="F18" s="65"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="60">
         <v>21</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="K18" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="117">
-        <v>22</v>
-      </c>
-      <c r="N18" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="108" t="s">
+      <c r="L18" s="98"/>
+      <c r="M18" s="113">
+        <v>24</v>
+      </c>
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="108" t="s">
+      <c r="P18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="109"/>
-    </row>
-    <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="48">
         <v>11</v>
       </c>
@@ -8832,20 +8867,20 @@
       <c r="E19" s="35">
         <v>7</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="62">
+      <c r="F19" s="65"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="60">
         <v>22</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="71" t="s">
+      <c r="K19" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="73">
+      <c r="L19" s="98"/>
+      <c r="M19" s="71">
         <v>17</v>
       </c>
       <c r="N19" s="34" t="s">
@@ -8863,9 +8898,18 @@
       <c r="R19" s="42"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J20" s="58"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="73">
+      <c r="H20" s="62"/>
+      <c r="I20" s="60">
+        <v>23</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L20" s="98"/>
+      <c r="M20" s="71">
         <v>18</v>
       </c>
       <c r="N20" s="34" t="s">
@@ -8882,9 +8926,19 @@
       </c>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="63"/>
-      <c r="M21" s="61">
+    <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="63"/>
+      <c r="I21" s="61">
+        <v>24</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K21" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" s="98"/>
+      <c r="M21" s="60">
         <v>19</v>
       </c>
       <c r="N21" s="34" t="s">
@@ -8902,8 +8956,8 @@
       <c r="R21" s="39"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="63"/>
-      <c r="M22" s="61">
+      <c r="L22" s="62"/>
+      <c r="M22" s="60">
         <v>17</v>
       </c>
       <c r="N22" s="34" t="s">
@@ -8921,8 +8975,8 @@
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="63"/>
-      <c r="M23" s="61">
+      <c r="L23" s="62"/>
+      <c r="M23" s="60">
         <v>20</v>
       </c>
       <c r="N23" s="34" t="s">
@@ -8940,8 +8994,8 @@
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="64"/>
-      <c r="M24" s="62">
+      <c r="L24" s="63"/>
+      <c r="M24" s="61">
         <v>20</v>
       </c>
       <c r="N24" s="46" t="s">
@@ -8979,8 +9033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9017,30 +9071,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -9051,14 +9105,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -9068,11 +9122,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9084,29 +9138,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9171,21 +9225,21 @@
         <v>22</v>
       </c>
       <c r="F9" s="35"/>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="60">
+      <c r="H9" s="62"/>
+      <c r="I9" s="139">
         <v>3</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="72">
+      <c r="L9" s="72"/>
+      <c r="M9" s="70">
         <v>3</v>
       </c>
       <c r="N9" s="45" t="s">
@@ -9218,19 +9272,19 @@
         <v>254</v>
       </c>
       <c r="F10" s="35"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="60">
+      <c r="G10" s="58"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="59">
         <v>4</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="74"/>
-      <c r="M10" s="73">
+      <c r="L10" s="72"/>
+      <c r="M10" s="71">
         <v>4</v>
       </c>
       <c r="N10" s="34" t="s">
@@ -9248,18 +9302,18 @@
       <c r="R10" s="42"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H11" s="63"/>
-      <c r="I11" s="60">
+      <c r="H11" s="62"/>
+      <c r="I11" s="59">
         <v>5</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="74"/>
-      <c r="M11" s="73">
+      <c r="L11" s="72"/>
+      <c r="M11" s="71">
         <v>5</v>
       </c>
       <c r="N11" s="34" t="s">
@@ -9277,18 +9331,18 @@
       <c r="R11" s="42"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H12" s="63"/>
-      <c r="I12" s="61">
+      <c r="H12" s="62"/>
+      <c r="I12" s="60">
         <v>6</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="74"/>
-      <c r="M12" s="73">
+      <c r="L12" s="72"/>
+      <c r="M12" s="71">
         <v>6</v>
       </c>
       <c r="N12" s="34" t="s">
@@ -9306,18 +9360,18 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H13" s="63"/>
-      <c r="I13" s="61">
+      <c r="H13" s="62"/>
+      <c r="I13" s="60">
         <v>7</v>
       </c>
       <c r="J13" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="73">
+      <c r="L13" s="62"/>
+      <c r="M13" s="71">
         <v>7</v>
       </c>
       <c r="N13" s="34" t="s">
@@ -9335,18 +9389,18 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="63"/>
-      <c r="I14" s="61">
+      <c r="H14" s="62"/>
+      <c r="I14" s="60">
         <v>8</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="73">
+      <c r="L14" s="62"/>
+      <c r="M14" s="71">
         <v>12</v>
       </c>
       <c r="N14" s="34" t="s">
@@ -9364,18 +9418,18 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="63"/>
-      <c r="I15" s="61">
+      <c r="H15" s="62"/>
+      <c r="I15" s="60">
         <v>9</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="73">
+      <c r="L15" s="62"/>
+      <c r="M15" s="71">
         <v>12</v>
       </c>
       <c r="N15" s="34" t="s">
@@ -9393,18 +9447,18 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H16" s="63"/>
-      <c r="I16" s="61">
+      <c r="H16" s="62"/>
+      <c r="I16" s="60">
         <v>11</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="69" t="s">
+      <c r="K16" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="73">
+      <c r="L16" s="62"/>
+      <c r="M16" s="71">
         <v>12</v>
       </c>
       <c r="N16" s="34" t="s">
@@ -9422,19 +9476,19 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H17" s="63"/>
-      <c r="I17" s="61">
+      <c r="H17" s="62"/>
+      <c r="I17" s="60">
         <v>12</v>
       </c>
       <c r="J17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="69" t="s">
+      <c r="K17" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="73">
-        <v>4</v>
+      <c r="L17" s="62"/>
+      <c r="M17" s="71">
+        <v>13</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -9450,20 +9504,20 @@
       </c>
       <c r="R17" s="42"/>
     </row>
-    <row r="18" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="64"/>
-      <c r="I18" s="62">
+    <row r="18" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H18" s="62"/>
+      <c r="I18" s="60">
         <v>13</v>
       </c>
-      <c r="J18" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="73">
-        <v>13</v>
+      <c r="J18" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K18" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="L18" s="62"/>
+      <c r="M18" s="71">
+        <v>14</v>
       </c>
       <c r="N18" s="34" t="s">
         <v>63</v>
@@ -9479,9 +9533,19 @@
       </c>
       <c r="R18" s="42"/>
     </row>
-    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L19" s="63"/>
-      <c r="M19" s="73">
+    <row r="19" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="63"/>
+      <c r="I19" s="61">
+        <v>14</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K19" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="L19" s="62"/>
+      <c r="M19" s="71">
         <v>8</v>
       </c>
       <c r="N19" s="34" t="s">
@@ -9499,9 +9563,8 @@
       <c r="R19" s="42"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="J20" s="58"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="73">
+      <c r="L20" s="62"/>
+      <c r="M20" s="71">
         <v>9</v>
       </c>
       <c r="N20" s="34" t="s">
@@ -9519,8 +9582,8 @@
       <c r="R20" s="39"/>
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="63"/>
-      <c r="M21" s="61">
+      <c r="L21" s="62"/>
+      <c r="M21" s="60">
         <v>12</v>
       </c>
       <c r="N21" s="34" t="s">
@@ -9538,8 +9601,8 @@
       <c r="R21" s="39"/>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="63"/>
-      <c r="M22" s="61">
+      <c r="L22" s="62"/>
+      <c r="M22" s="60">
         <v>8</v>
       </c>
       <c r="N22" s="34" t="s">
@@ -9557,8 +9620,8 @@
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="63"/>
-      <c r="M23" s="61">
+      <c r="L23" s="62"/>
+      <c r="M23" s="60">
         <v>11</v>
       </c>
       <c r="N23" s="34" t="s">
@@ -9576,8 +9639,8 @@
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="64"/>
-      <c r="M24" s="62">
+      <c r="L24" s="63"/>
+      <c r="M24" s="61">
         <v>11</v>
       </c>
       <c r="N24" s="46" t="s">
@@ -9615,8 +9678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9653,30 +9716,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -9687,14 +9750,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -9704,11 +9767,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9720,29 +9783,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9794,32 +9857,32 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="48">
+      <c r="B9" s="77">
         <v>1</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="79">
         <v>30</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="60">
+      <c r="F9" s="79"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="137">
         <v>14</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="72">
+      <c r="L9" s="97"/>
+      <c r="M9" s="70">
         <v>14</v>
       </c>
       <c r="N9" s="45" t="s">
@@ -9839,7 +9902,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="48">
+      <c r="B10" s="25">
         <v>2</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -9852,19 +9915,19 @@
         <v>22</v>
       </c>
       <c r="F10" s="35"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="60">
+      <c r="G10" s="141"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="138">
         <v>15</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="74"/>
-      <c r="M10" s="73">
+      <c r="L10" s="97"/>
+      <c r="M10" s="71">
         <v>15</v>
       </c>
       <c r="N10" s="34" t="s">
@@ -9882,7 +9945,7 @@
       <c r="R10" s="42"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="48">
+      <c r="B11" s="25">
         <v>3</v>
       </c>
       <c r="C11" s="35" t="s">
@@ -9895,19 +9958,19 @@
         <v>7</v>
       </c>
       <c r="F11" s="35"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="60">
+      <c r="G11" s="141"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="138">
         <v>16</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="74"/>
-      <c r="M11" s="73">
+      <c r="L11" s="97"/>
+      <c r="M11" s="71">
         <v>16</v>
       </c>
       <c r="N11" s="34" t="s">
@@ -9925,7 +9988,7 @@
       <c r="R11" s="42"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="48">
+      <c r="B12" s="25">
         <v>4</v>
       </c>
       <c r="C12" s="35" t="s">
@@ -9937,20 +10000,20 @@
       <c r="E12" s="35">
         <v>5</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="61">
+      <c r="F12" s="65"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="38">
         <v>17</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="L12" s="74"/>
-      <c r="M12" s="73">
+      <c r="L12" s="97"/>
+      <c r="M12" s="71">
         <v>17</v>
       </c>
       <c r="N12" s="34" t="s">
@@ -9968,7 +10031,7 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="33">
+      <c r="B13" s="142">
         <v>5</v>
       </c>
       <c r="C13" s="35" t="s">
@@ -9980,22 +10043,22 @@
       <c r="E13" s="31">
         <v>4</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="76" t="s">
+      <c r="F13" s="65"/>
+      <c r="G13" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="61">
+      <c r="H13" s="47"/>
+      <c r="I13" s="38">
         <v>18</v>
       </c>
       <c r="J13" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="73">
+      <c r="L13" s="98"/>
+      <c r="M13" s="71">
         <v>18</v>
       </c>
       <c r="N13" s="34" t="s">
@@ -10013,7 +10076,7 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="33">
+      <c r="B14" s="142">
         <v>6</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -10025,20 +10088,20 @@
       <c r="E14" s="31">
         <v>30</v>
       </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="61">
+      <c r="F14" s="65"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="38">
         <v>19</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="73">
+      <c r="L14" s="98"/>
+      <c r="M14" s="71">
         <v>23</v>
       </c>
       <c r="N14" s="34" t="s">
@@ -10056,7 +10119,7 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="33">
+      <c r="B15" s="142">
         <v>7</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -10068,20 +10131,20 @@
       <c r="E15" s="31">
         <v>10</v>
       </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="61">
+      <c r="F15" s="65"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="38">
         <v>20</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="73">
+      <c r="L15" s="98"/>
+      <c r="M15" s="71">
         <v>23</v>
       </c>
       <c r="N15" s="34" t="s">
@@ -10099,7 +10162,7 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="33">
+      <c r="B16" s="142">
         <v>8</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -10111,20 +10174,20 @@
       <c r="E16" s="31">
         <v>1</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="61">
+      <c r="F16" s="65"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="38">
         <v>21</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="69" t="s">
+      <c r="K16" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="73">
+      <c r="L16" s="98"/>
+      <c r="M16" s="71">
         <v>23</v>
       </c>
       <c r="N16" s="34" t="s">
@@ -10142,7 +10205,7 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="33">
+      <c r="B17" s="142">
         <v>9</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -10154,21 +10217,21 @@
       <c r="E17" s="31">
         <v>1</v>
       </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="61">
+      <c r="F17" s="65"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="38">
         <v>22</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="69" t="s">
+      <c r="K17" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="73">
-        <v>15</v>
+      <c r="L17" s="98"/>
+      <c r="M17" s="71">
+        <v>24</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -10185,7 +10248,7 @@
       <c r="R17" s="42"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="33">
+      <c r="B18" s="142">
         <v>10</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -10197,21 +10260,21 @@
       <c r="E18" s="31">
         <v>22</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="61">
+      <c r="F18" s="65"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="38">
         <v>23</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="K18" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="73">
-        <v>24</v>
+      <c r="L18" s="98"/>
+      <c r="M18" s="71">
+        <v>25</v>
       </c>
       <c r="N18" s="34" t="s">
         <v>63</v>
@@ -10227,8 +10290,8 @@
       </c>
       <c r="R18" s="42"/>
     </row>
-    <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="33">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="142">
         <v>11</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -10240,20 +10303,20 @@
       <c r="E19" s="31">
         <v>7</v>
       </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="62">
+      <c r="F19" s="65"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="38">
         <v>24</v>
       </c>
-      <c r="J19" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="73">
+      <c r="J19" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L19" s="98"/>
+      <c r="M19" s="71">
         <v>19</v>
       </c>
       <c r="N19" s="34" t="s">
@@ -10270,8 +10333,8 @@
       </c>
       <c r="R19" s="42"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="33">
+    <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="142">
         <v>12</v>
       </c>
       <c r="C20" s="35" t="s">
@@ -10283,12 +10346,20 @@
       <c r="E20" s="31">
         <v>30</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="63"/>
-      <c r="J20" s="58"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="73">
+      <c r="F20" s="65"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="36">
+        <v>25</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K20" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" s="98"/>
+      <c r="M20" s="71">
         <v>20</v>
       </c>
       <c r="N20" s="34" t="s">
@@ -10306,23 +10377,23 @@
       <c r="R20" s="39"/>
     </row>
     <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33">
+      <c r="B21" s="143">
         <v>13</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="37">
         <v>7</v>
       </c>
-      <c r="F21" s="66"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="64"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="61">
+      <c r="F21" s="83"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="63"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="60">
         <v>21</v>
       </c>
       <c r="N21" s="34" t="s">
@@ -10340,8 +10411,8 @@
       <c r="R21" s="39"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="63"/>
-      <c r="M22" s="61">
+      <c r="L22" s="62"/>
+      <c r="M22" s="60">
         <v>19</v>
       </c>
       <c r="N22" s="34" t="s">
@@ -10359,8 +10430,8 @@
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="63"/>
-      <c r="M23" s="61">
+      <c r="L23" s="62"/>
+      <c r="M23" s="60">
         <v>22</v>
       </c>
       <c r="N23" s="34" t="s">
@@ -10378,8 +10449,8 @@
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="64"/>
-      <c r="M24" s="62">
+      <c r="L24" s="63"/>
+      <c r="M24" s="61">
         <v>22</v>
       </c>
       <c r="N24" s="46" t="s">
@@ -10417,8 +10488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10455,30 +10526,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -10489,14 +10560,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -10506,11 +10577,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -10522,29 +10593,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10609,19 +10680,19 @@
         <v>22</v>
       </c>
       <c r="F9" s="35"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="60">
+      <c r="G9" s="58"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="137">
         <v>6</v>
       </c>
       <c r="J9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="74"/>
-      <c r="M9" s="72">
+      <c r="L9" s="72"/>
+      <c r="M9" s="70">
         <v>6</v>
       </c>
       <c r="N9" s="45" t="s">
@@ -10654,21 +10725,21 @@
         <v>22</v>
       </c>
       <c r="F10" s="35"/>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="60">
+      <c r="H10" s="47"/>
+      <c r="I10" s="138">
         <v>7</v>
       </c>
       <c r="J10" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="74"/>
-      <c r="M10" s="73">
+      <c r="L10" s="72"/>
+      <c r="M10" s="71">
         <v>7</v>
       </c>
       <c r="N10" s="34" t="s">
@@ -10699,19 +10770,19 @@
         <v>3</v>
       </c>
       <c r="F11" s="35"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="60">
+      <c r="G11" s="58"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="138">
         <v>8</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K11" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="74"/>
-      <c r="M11" s="73">
+      <c r="L11" s="72"/>
+      <c r="M11" s="71">
         <v>8</v>
       </c>
       <c r="N11" s="34" t="s">
@@ -10741,20 +10812,20 @@
       <c r="E12" s="35">
         <v>30</v>
       </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="61">
+      <c r="F12" s="65"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="38">
         <v>9</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="L12" s="74"/>
-      <c r="M12" s="73">
+      <c r="L12" s="72"/>
+      <c r="M12" s="71">
         <v>9</v>
       </c>
       <c r="N12" s="34" t="s">
@@ -10784,20 +10855,20 @@
       <c r="E13" s="31">
         <v>10</v>
       </c>
-      <c r="F13" s="66"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="61">
+      <c r="F13" s="65"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="38">
         <v>10</v>
       </c>
       <c r="J13" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="70" t="s">
+      <c r="K13" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="73">
+      <c r="L13" s="62"/>
+      <c r="M13" s="71">
         <v>10</v>
       </c>
       <c r="N13" s="34" t="s">
@@ -10815,18 +10886,18 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="63"/>
-      <c r="I14" s="61">
+      <c r="H14" s="47"/>
+      <c r="I14" s="38">
         <v>11</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="73">
+      <c r="L14" s="62"/>
+      <c r="M14" s="71">
         <v>15</v>
       </c>
       <c r="N14" s="34" t="s">
@@ -10844,18 +10915,18 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="63"/>
-      <c r="I15" s="61">
+      <c r="H15" s="47"/>
+      <c r="I15" s="38">
         <v>12</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="73">
+      <c r="L15" s="62"/>
+      <c r="M15" s="71">
         <v>15</v>
       </c>
       <c r="N15" s="34" t="s">
@@ -10873,18 +10944,18 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H16" s="63"/>
-      <c r="I16" s="61">
+      <c r="H16" s="47"/>
+      <c r="I16" s="38">
         <v>13</v>
       </c>
       <c r="J16" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="69" t="s">
+      <c r="K16" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="73">
+      <c r="L16" s="62"/>
+      <c r="M16" s="71">
         <v>15</v>
       </c>
       <c r="N16" s="34" t="s">
@@ -10902,19 +10973,19 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H17" s="63"/>
-      <c r="I17" s="61">
+      <c r="H17" s="47"/>
+      <c r="I17" s="38">
         <v>14</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="69" t="s">
+      <c r="K17" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="73">
-        <v>7</v>
+      <c r="L17" s="62"/>
+      <c r="M17" s="71">
+        <v>16</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -10931,19 +11002,19 @@
       <c r="R17" s="42"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H18" s="63"/>
-      <c r="I18" s="61">
+      <c r="H18" s="47"/>
+      <c r="I18" s="38">
         <v>15</v>
       </c>
       <c r="J18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="K18" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="73">
-        <v>16</v>
+      <c r="L18" s="62"/>
+      <c r="M18" s="71">
+        <v>17</v>
       </c>
       <c r="N18" s="34" t="s">
         <v>63</v>
@@ -10959,19 +11030,19 @@
       </c>
       <c r="R18" s="42"/>
     </row>
-    <row r="19" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="64"/>
-      <c r="I19" s="62">
+    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H19" s="47"/>
+      <c r="I19" s="38">
         <v>16</v>
       </c>
-      <c r="J19" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="73">
+      <c r="J19" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K19" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="L19" s="62"/>
+      <c r="M19" s="71">
         <v>11</v>
       </c>
       <c r="N19" s="34" t="s">
@@ -10988,10 +11059,19 @@
       </c>
       <c r="R19" s="42"/>
     </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="J20" s="58"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="73">
+    <row r="20" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="56"/>
+      <c r="I20" s="36">
+        <v>17</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K20" s="110" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" s="62"/>
+      <c r="M20" s="71">
         <v>12</v>
       </c>
       <c r="N20" s="34" t="s">
@@ -11009,8 +11089,8 @@
       <c r="R20" s="39"/>
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="63"/>
-      <c r="M21" s="61">
+      <c r="L21" s="62"/>
+      <c r="M21" s="60">
         <v>13</v>
       </c>
       <c r="N21" s="34" t="s">
@@ -11028,8 +11108,8 @@
       <c r="R21" s="39"/>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="63"/>
-      <c r="M22" s="61">
+      <c r="L22" s="62"/>
+      <c r="M22" s="60">
         <v>11</v>
       </c>
       <c r="N22" s="34" t="s">
@@ -11047,8 +11127,8 @@
       <c r="R22" s="39"/>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="63"/>
-      <c r="M23" s="61">
+      <c r="L23" s="62"/>
+      <c r="M23" s="60">
         <v>14</v>
       </c>
       <c r="N23" s="34" t="s">
@@ -11066,8 +11146,8 @@
       <c r="R23" s="39"/>
     </row>
     <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="64"/>
-      <c r="M24" s="62">
+      <c r="L24" s="63"/>
+      <c r="M24" s="61">
         <v>14</v>
       </c>
       <c r="N24" s="46" t="s">
@@ -11105,8 +11185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="K17" sqref="I17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11143,30 +11223,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -11177,14 +11257,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -11194,11 +11274,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11210,29 +11290,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11284,7 +11364,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="79">
+      <c r="B9" s="77">
         <v>1</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -11296,21 +11376,21 @@
       <c r="E9" s="24">
         <v>4</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="92" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="63"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="51">
         <v>11</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="105" t="s">
+      <c r="K9" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="90"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="41">
         <v>16</v>
       </c>
@@ -11344,8 +11424,8 @@
         <v>10</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="63"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="38">
         <v>12</v>
       </c>
@@ -11355,7 +11435,7 @@
       <c r="K10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="90"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="25">
         <v>11</v>
       </c>
@@ -11387,8 +11467,8 @@
         <v>30</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="63"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="38">
         <v>13</v>
       </c>
@@ -11398,7 +11478,7 @@
       <c r="K11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="90"/>
+      <c r="L11" s="49"/>
       <c r="M11" s="25">
         <v>12</v>
       </c>
@@ -11430,8 +11510,8 @@
         <v>1</v>
       </c>
       <c r="F12" s="27"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="63"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="38">
         <v>14</v>
       </c>
@@ -11441,7 +11521,7 @@
       <c r="K12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="90"/>
+      <c r="L12" s="49"/>
       <c r="M12" s="25">
         <v>17</v>
       </c>
@@ -11460,7 +11540,7 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="94">
+      <c r="B13" s="91">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
@@ -11472,9 +11552,9 @@
       <c r="E13" s="48">
         <v>1</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="63"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="38">
         <v>15</v>
       </c>
@@ -11484,7 +11564,7 @@
       <c r="K13" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="47"/>
+      <c r="L13" s="50"/>
       <c r="M13" s="25">
         <v>18</v>
       </c>
@@ -11503,7 +11583,7 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="94">
+      <c r="B14" s="91">
         <v>6</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -11515,9 +11595,9 @@
       <c r="E14" s="48">
         <v>1</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="63"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="38">
         <v>16</v>
       </c>
@@ -11527,7 +11607,7 @@
       <c r="K14" s="53" t="s">
         <v>277</v>
       </c>
-      <c r="L14" s="47"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="25">
         <v>14</v>
       </c>
@@ -11546,7 +11626,7 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="94">
+      <c r="B15" s="91">
         <v>7</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -11558,9 +11638,9 @@
       <c r="E15" s="48">
         <v>22</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="63"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="38">
         <v>17</v>
       </c>
@@ -11570,7 +11650,7 @@
       <c r="K15" s="53" t="s">
         <v>278</v>
       </c>
-      <c r="L15" s="47"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="25">
         <v>14</v>
       </c>
@@ -11588,8 +11668,8 @@
       </c>
       <c r="R15" s="42"/>
     </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="94">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="91">
         <v>8</v>
       </c>
       <c r="C16" s="48" t="s">
@@ -11601,19 +11681,19 @@
       <c r="E16" s="48">
         <v>22</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="36">
+      <c r="F16" s="88"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="38">
         <v>18</v>
       </c>
-      <c r="J16" s="110" t="s">
+      <c r="J16" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="K16" s="77" t="s">
+      <c r="K16" s="53" t="s">
         <v>279</v>
       </c>
-      <c r="L16" s="47"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="25">
         <v>14</v>
       </c>
@@ -11632,7 +11712,7 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="94">
+      <c r="B17" s="91">
         <v>9</v>
       </c>
       <c r="C17" s="48" t="s">
@@ -11644,12 +11724,21 @@
       <c r="E17" s="48">
         <v>22</v>
       </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="95"/>
-      <c r="J17" s="58"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="25">
-        <v>11</v>
+      <c r="F17" s="88"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="38">
+        <v>19</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="L17" s="50"/>
+      <c r="M17" s="38">
+        <v>20</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -11666,37 +11755,47 @@
       <c r="R17" s="42"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="96">
+      <c r="B18" s="93">
         <v>10</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="94" t="s">
         <v>273</v>
       </c>
-      <c r="D18" s="97" t="s">
+      <c r="D18" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="94">
         <v>1</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="99"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="107">
-        <v>15</v>
-      </c>
-      <c r="N18" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="108" t="s">
+      <c r="F18" s="95"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="36">
+        <v>20</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="L18" s="50"/>
+      <c r="M18" s="104">
+        <v>19</v>
+      </c>
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="108" t="s">
+      <c r="P18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="109"/>
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L19" s="47"/>
@@ -11833,8 +11932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="H16" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11871,30 +11970,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -11905,14 +12004,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -11922,11 +12021,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -11938,29 +12037,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12012,33 +12111,33 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="79">
+      <c r="B9" s="77">
         <v>1</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="79" t="s">
         <v>262</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="79">
         <v>22</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="63"/>
+      <c r="H9" s="47"/>
       <c r="I9" s="51">
         <v>4</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="105" t="s">
+      <c r="K9" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="90"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="41">
         <v>9</v>
       </c>
@@ -12073,7 +12172,7 @@
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="43"/>
-      <c r="H10" s="63"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="38">
         <v>5</v>
       </c>
@@ -12083,7 +12182,7 @@
       <c r="K10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="90"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="25">
         <v>4</v>
       </c>
@@ -12102,21 +12201,21 @@
       <c r="R10" s="42"/>
     </row>
     <row r="11" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="83">
+      <c r="B11" s="81">
         <v>3</v>
       </c>
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="108" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="111">
+      <c r="E11" s="108">
         <v>40</v>
       </c>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="63"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="38">
         <v>6</v>
       </c>
@@ -12126,7 +12225,7 @@
       <c r="K11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="90"/>
+      <c r="L11" s="49"/>
       <c r="M11" s="25">
         <v>5</v>
       </c>
@@ -12145,7 +12244,7 @@
       <c r="R11" s="42"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H12" s="63"/>
+      <c r="H12" s="47"/>
       <c r="I12" s="38">
         <v>7</v>
       </c>
@@ -12155,7 +12254,7 @@
       <c r="K12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="90"/>
+      <c r="L12" s="49"/>
       <c r="M12" s="25">
         <v>10</v>
       </c>
@@ -12174,7 +12273,7 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H13" s="63"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="38">
         <v>8</v>
       </c>
@@ -12184,7 +12283,7 @@
       <c r="K13" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="47"/>
+      <c r="L13" s="50"/>
       <c r="M13" s="25">
         <v>11</v>
       </c>
@@ -12203,7 +12302,7 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="63"/>
+      <c r="H14" s="47"/>
       <c r="I14" s="38">
         <v>9</v>
       </c>
@@ -12213,7 +12312,7 @@
       <c r="K14" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="L14" s="47"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="25">
         <v>7</v>
       </c>
@@ -12232,7 +12331,7 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="63"/>
+      <c r="H15" s="47"/>
       <c r="I15" s="38">
         <v>10</v>
       </c>
@@ -12242,7 +12341,7 @@
       <c r="K15" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="L15" s="47"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="25">
         <v>7</v>
       </c>
@@ -12260,18 +12359,18 @@
       </c>
       <c r="R15" s="42"/>
     </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="64"/>
-      <c r="I16" s="36">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H16" s="47"/>
+      <c r="I16" s="38">
         <v>11</v>
       </c>
-      <c r="J16" s="110" t="s">
+      <c r="J16" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="K16" s="77" t="s">
+      <c r="K16" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="L16" s="47"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="25">
         <v>7</v>
       </c>
@@ -12289,11 +12388,20 @@
       </c>
       <c r="R16" s="42"/>
     </row>
-    <row r="17" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="J17" s="58"/>
-      <c r="L17" s="47"/>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H17" s="47"/>
+      <c r="I17" s="38">
+        <v>12</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="50"/>
       <c r="M17" s="25">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -12309,26 +12417,36 @@
       </c>
       <c r="R17" s="42"/>
     </row>
-    <row r="18" spans="10:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="47"/>
-      <c r="M18" s="107">
-        <v>8</v>
-      </c>
-      <c r="N18" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="108" t="s">
+    <row r="18" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="56"/>
+      <c r="I18" s="36">
+        <v>13</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" s="50"/>
+      <c r="M18" s="104">
+        <v>13</v>
+      </c>
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="108" t="s">
+      <c r="P18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="109"/>
-    </row>
-    <row r="19" spans="10:18" x14ac:dyDescent="0.2">
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L19" s="47"/>
       <c r="M19" s="25">
         <v>6</v>
@@ -12347,7 +12465,7 @@
       </c>
       <c r="R19" s="42"/>
     </row>
-    <row r="20" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L20" s="47"/>
       <c r="M20" s="25">
         <v>1</v>
@@ -12366,7 +12484,7 @@
       </c>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L21" s="47"/>
       <c r="M21" s="38">
         <v>3</v>
@@ -12385,7 +12503,7 @@
       </c>
       <c r="R21" s="39"/>
     </row>
-    <row r="22" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L22" s="47"/>
       <c r="M22" s="38">
         <v>6</v>
@@ -12404,7 +12522,7 @@
       </c>
       <c r="R22" s="39"/>
     </row>
-    <row r="23" spans="10:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:18" x14ac:dyDescent="0.2">
       <c r="L23" s="47"/>
       <c r="M23" s="38">
         <v>3</v>
@@ -12423,7 +12541,7 @@
       </c>
       <c r="R23" s="39"/>
     </row>
-    <row r="24" spans="10:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L24" s="56"/>
       <c r="M24" s="36">
         <v>2</v>
@@ -12463,8 +12581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12501,30 +12619,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -12535,14 +12653,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -12552,11 +12670,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -12568,29 +12686,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12642,7 +12760,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="79">
+      <c r="B9" s="77">
         <v>1</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -12654,19 +12772,19 @@
       <c r="E9" s="24">
         <v>18</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="51">
+      <c r="F9" s="80"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="64">
         <v>14</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="105" t="s">
+      <c r="K9" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="90"/>
+      <c r="L9" s="49"/>
       <c r="M9" s="41">
         <v>19</v>
       </c>
@@ -12700,11 +12818,11 @@
         <v>20</v>
       </c>
       <c r="F10" s="27"/>
-      <c r="G10" s="93" t="s">
+      <c r="G10" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="38">
+      <c r="H10" s="62"/>
+      <c r="I10" s="60">
         <v>15</v>
       </c>
       <c r="J10" s="26" t="s">
@@ -12713,7 +12831,7 @@
       <c r="K10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="90"/>
+      <c r="L10" s="49"/>
       <c r="M10" s="31">
         <v>14</v>
       </c>
@@ -12745,9 +12863,9 @@
         <v>5</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="38">
+      <c r="G11" s="43"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="60">
         <v>16</v>
       </c>
       <c r="J11" s="26" t="s">
@@ -12756,7 +12874,7 @@
       <c r="K11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="90"/>
+      <c r="L11" s="49"/>
       <c r="M11" s="31">
         <v>15</v>
       </c>
@@ -12788,9 +12906,9 @@
         <v>3</v>
       </c>
       <c r="F12" s="27"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="38">
+      <c r="G12" s="43"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="60">
         <v>17</v>
       </c>
       <c r="J12" s="31" t="s">
@@ -12799,7 +12917,7 @@
       <c r="K12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="90"/>
+      <c r="L12" s="49"/>
       <c r="M12" s="25">
         <v>20</v>
       </c>
@@ -12818,7 +12936,7 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="94">
+      <c r="B13" s="91">
         <v>5</v>
       </c>
       <c r="C13" s="48" t="s">
@@ -12830,10 +12948,10 @@
       <c r="E13" s="48">
         <v>30</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="38">
+      <c r="F13" s="88"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="60">
         <v>18</v>
       </c>
       <c r="J13" s="31" t="s">
@@ -12842,7 +12960,7 @@
       <c r="K13" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="47"/>
+      <c r="L13" s="50"/>
       <c r="M13" s="25">
         <v>21</v>
       </c>
@@ -12861,7 +12979,7 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="94">
+      <c r="B14" s="91">
         <v>6</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -12873,10 +12991,10 @@
       <c r="E14" s="48">
         <v>30</v>
       </c>
-      <c r="F14" s="91"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="38">
+      <c r="F14" s="88"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="60">
         <v>19</v>
       </c>
       <c r="J14" s="26" t="s">
@@ -12885,7 +13003,7 @@
       <c r="K14" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="L14" s="47"/>
+      <c r="L14" s="50"/>
       <c r="M14" s="25">
         <v>17</v>
       </c>
@@ -12904,7 +13022,7 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="94">
+      <c r="B15" s="91">
         <v>7</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -12916,10 +13034,10 @@
       <c r="E15" s="48">
         <v>22</v>
       </c>
-      <c r="F15" s="91"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="38">
+      <c r="F15" s="88"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="60">
         <v>20</v>
       </c>
       <c r="J15" s="26" t="s">
@@ -12928,7 +13046,7 @@
       <c r="K15" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="L15" s="47"/>
+      <c r="L15" s="50"/>
       <c r="M15" s="25">
         <v>17</v>
       </c>
@@ -12946,8 +13064,8 @@
       </c>
       <c r="R15" s="42"/>
     </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="94">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="91">
         <v>8</v>
       </c>
       <c r="C16" s="48" t="s">
@@ -12959,19 +13077,19 @@
       <c r="E16" s="48">
         <v>7</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="36">
-        <v>21</v>
-      </c>
-      <c r="J16" s="110" t="s">
+      <c r="F16" s="88"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="60">
+        <v>21</v>
+      </c>
+      <c r="J16" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="K16" s="77" t="s">
+      <c r="K16" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="L16" s="47"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="25">
         <v>17</v>
       </c>
@@ -12990,7 +13108,7 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="94">
+      <c r="B17" s="91">
         <v>9</v>
       </c>
       <c r="C17" s="48" t="s">
@@ -13002,12 +13120,21 @@
       <c r="E17" s="48">
         <v>30</v>
       </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="95"/>
-      <c r="J17" s="58"/>
-      <c r="L17" s="47"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="60">
+        <v>22</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="50"/>
       <c r="M17" s="25">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -13023,8 +13150,8 @@
       </c>
       <c r="R17" s="42"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="94">
+    <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="91">
         <v>10</v>
       </c>
       <c r="C18" s="48" t="s">
@@ -13036,28 +13163,38 @@
       <c r="E18" s="48">
         <v>7</v>
       </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="95"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="107">
-        <v>18</v>
-      </c>
-      <c r="N18" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="108" t="s">
+      <c r="F18" s="88"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="61">
+        <v>23</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" s="50"/>
+      <c r="M18" s="104">
+        <v>23</v>
+      </c>
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="108" t="s">
+      <c r="P18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="109"/>
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="94">
+      <c r="B19" s="91">
         <v>11</v>
       </c>
       <c r="C19" s="48" t="s">
@@ -13069,8 +13206,8 @@
       <c r="E19" s="48">
         <v>30</v>
       </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="95"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="92"/>
       <c r="L19" s="47"/>
       <c r="M19" s="25">
         <v>16</v>
@@ -13090,7 +13227,7 @@
       <c r="R19" s="42"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="94">
+      <c r="B20" s="91">
         <v>12</v>
       </c>
       <c r="C20" s="48" t="s">
@@ -13102,8 +13239,8 @@
       <c r="E20" s="48">
         <v>22</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="95"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="92"/>
       <c r="L20" s="47"/>
       <c r="M20" s="25">
         <v>2</v>
@@ -13123,20 +13260,20 @@
       <c r="R20" s="39"/>
     </row>
     <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="96">
+      <c r="B21" s="93">
         <v>13</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="D21" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="97">
+      <c r="E21" s="94">
         <v>7</v>
       </c>
-      <c r="F21" s="98"/>
-      <c r="G21" s="99"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="96"/>
       <c r="L21" s="47"/>
       <c r="M21" s="38">
         <v>6</v>
@@ -13233,8 +13370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13271,30 +13408,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -13305,14 +13442,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -13322,11 +13459,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13338,29 +13475,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13412,33 +13549,33 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="79">
+      <c r="B9" s="77">
         <v>1</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="79" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="79">
         <v>15</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="86" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="65">
+      <c r="H9" s="47"/>
+      <c r="I9" s="51">
         <v>3</v>
       </c>
-      <c r="J9" s="104" t="s">
+      <c r="J9" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="113" t="s">
+      <c r="K9" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="74"/>
+      <c r="L9" s="97"/>
       <c r="M9" s="41">
         <v>8</v>
       </c>
@@ -13459,31 +13596,31 @@
       </c>
     </row>
     <row r="10" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="83">
+      <c r="B10" s="81">
         <v>2</v>
       </c>
-      <c r="C10" s="111" t="s">
+      <c r="C10" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="111">
+      <c r="E10" s="108">
         <v>30</v>
       </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="61">
+      <c r="F10" s="109"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="38">
         <v>4</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="74"/>
+      <c r="L10" s="97"/>
       <c r="M10" s="25">
         <v>3</v>
       </c>
@@ -13502,17 +13639,17 @@
       <c r="R10" s="42"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H11" s="63"/>
-      <c r="I11" s="61">
+      <c r="H11" s="47"/>
+      <c r="I11" s="38">
         <v>5</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="69" t="s">
+      <c r="K11" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="L11" s="74"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="25">
         <v>4</v>
       </c>
@@ -13531,17 +13668,17 @@
       <c r="R11" s="42"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H12" s="63"/>
-      <c r="I12" s="61">
+      <c r="H12" s="47"/>
+      <c r="I12" s="38">
         <v>6</v>
       </c>
       <c r="J12" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="74"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="25">
         <v>9</v>
       </c>
@@ -13560,17 +13697,17 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H13" s="63"/>
-      <c r="I13" s="61">
+      <c r="H13" s="47"/>
+      <c r="I13" s="38">
         <v>7</v>
       </c>
       <c r="J13" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="K13" s="68" t="s">
+      <c r="K13" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="63"/>
+      <c r="L13" s="98"/>
       <c r="M13" s="25">
         <v>10</v>
       </c>
@@ -13589,17 +13726,17 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="63"/>
-      <c r="I14" s="61">
+      <c r="H14" s="47"/>
+      <c r="I14" s="38">
         <v>8</v>
       </c>
       <c r="J14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="K14" s="69" t="s">
+      <c r="K14" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="L14" s="63"/>
+      <c r="L14" s="98"/>
       <c r="M14" s="25">
         <v>6</v>
       </c>
@@ -13618,17 +13755,17 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="63"/>
-      <c r="I15" s="61">
+      <c r="H15" s="47"/>
+      <c r="I15" s="38">
         <v>9</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="69" t="s">
+      <c r="K15" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="L15" s="63"/>
+      <c r="L15" s="98"/>
       <c r="M15" s="25">
         <v>6</v>
       </c>
@@ -13646,18 +13783,18 @@
       </c>
       <c r="R15" s="42"/>
     </row>
-    <row r="16" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H16" s="64"/>
-      <c r="I16" s="62">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H16" s="47"/>
+      <c r="I16" s="38">
         <v>10</v>
       </c>
-      <c r="J16" s="110" t="s">
+      <c r="J16" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="K16" s="114" t="s">
+      <c r="K16" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="L16" s="63"/>
+      <c r="L16" s="98"/>
       <c r="M16" s="25">
         <v>6</v>
       </c>
@@ -13675,10 +13812,20 @@
       </c>
       <c r="R16" s="42"/>
     </row>
-    <row r="17" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L17" s="63"/>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H17" s="47"/>
+      <c r="I17" s="38">
+        <v>11</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="98"/>
       <c r="M17" s="25">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -13694,27 +13841,37 @@
       </c>
       <c r="R17" s="42"/>
     </row>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L18" s="63"/>
-      <c r="M18" s="107">
-        <v>7</v>
-      </c>
-      <c r="N18" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="108" t="s">
+    <row r="18" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="56"/>
+      <c r="I18" s="36">
+        <v>12</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="L18" s="98"/>
+      <c r="M18" s="104">
+        <v>12</v>
+      </c>
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="108" t="s">
+      <c r="P18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="109"/>
-    </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L19" s="63"/>
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L19" s="62"/>
       <c r="M19" s="25">
         <v>5</v>
       </c>
@@ -13732,8 +13889,8 @@
       </c>
       <c r="R19" s="42"/>
     </row>
-    <row r="20" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L20" s="63"/>
+    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L20" s="62"/>
       <c r="M20" s="25">
         <v>1</v>
       </c>
@@ -13751,8 +13908,8 @@
       </c>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="63"/>
+    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L21" s="62"/>
       <c r="M21" s="38">
         <v>2</v>
       </c>
@@ -13770,8 +13927,8 @@
       </c>
       <c r="R21" s="39"/>
     </row>
-    <row r="22" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L22" s="63"/>
+    <row r="22" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L22" s="62"/>
       <c r="M22" s="38">
         <v>5</v>
       </c>
@@ -13789,8 +13946,8 @@
       </c>
       <c r="R22" s="39"/>
     </row>
-    <row r="23" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L23" s="63"/>
+    <row r="23" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="L23" s="62"/>
       <c r="M23" s="38">
         <v>2</v>
       </c>
@@ -13808,8 +13965,8 @@
       </c>
       <c r="R23" s="39"/>
     </row>
-    <row r="24" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L24" s="64"/>
+    <row r="24" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="63"/>
       <c r="M24" s="36">
         <v>2</v>
       </c>
@@ -13848,8 +14005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13886,30 +14043,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -13920,14 +14077,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -13937,11 +14094,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -13953,29 +14110,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14043,8 +14200,8 @@
       <c r="G9" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="65">
+      <c r="H9" s="47"/>
+      <c r="I9" s="51">
         <v>6</v>
       </c>
       <c r="J9" s="24" t="s">
@@ -14088,8 +14245,8 @@
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="43"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="61">
+      <c r="H10" s="47"/>
+      <c r="I10" s="38">
         <v>7</v>
       </c>
       <c r="J10" s="44" t="s">
@@ -14131,8 +14288,8 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="43"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="61">
+      <c r="H11" s="47"/>
+      <c r="I11" s="38">
         <v>8</v>
       </c>
       <c r="J11" s="26" t="s">
@@ -14174,8 +14331,8 @@
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="43"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="61">
+      <c r="H12" s="47"/>
+      <c r="I12" s="38">
         <v>9</v>
       </c>
       <c r="J12" s="26" t="s">
@@ -14203,8 +14360,8 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H13" s="63"/>
-      <c r="I13" s="61">
+      <c r="H13" s="47"/>
+      <c r="I13" s="38">
         <v>10</v>
       </c>
       <c r="J13" s="44" t="s">
@@ -14232,8 +14389,8 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="63"/>
-      <c r="I14" s="61">
+      <c r="H14" s="47"/>
+      <c r="I14" s="38">
         <v>11</v>
       </c>
       <c r="J14" s="26" t="s">
@@ -14261,8 +14418,8 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="63"/>
-      <c r="I15" s="61">
+      <c r="H15" s="47"/>
+      <c r="I15" s="38">
         <v>12</v>
       </c>
       <c r="J15" s="26" t="s">
@@ -14290,8 +14447,8 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H16" s="63"/>
-      <c r="I16" s="61">
+      <c r="H16" s="47"/>
+      <c r="I16" s="38">
         <v>13</v>
       </c>
       <c r="J16" s="26" t="s">
@@ -14319,8 +14476,8 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H17" s="63"/>
-      <c r="I17" s="61">
+      <c r="H17" s="47"/>
+      <c r="I17" s="38">
         <v>14</v>
       </c>
       <c r="J17" s="26" t="s">
@@ -14331,7 +14488,7 @@
       </c>
       <c r="L17" s="50"/>
       <c r="M17" s="25">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -14348,8 +14505,8 @@
       <c r="R17" s="42"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H18" s="63"/>
-      <c r="I18" s="61">
+      <c r="H18" s="47"/>
+      <c r="I18" s="38">
         <v>15</v>
       </c>
       <c r="J18" s="31" t="s">
@@ -14359,32 +14516,32 @@
         <v>36</v>
       </c>
       <c r="L18" s="50"/>
-      <c r="M18" s="107">
+      <c r="M18" s="104">
+        <v>18</v>
+      </c>
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H19" s="47"/>
+      <c r="I19" s="38">
         <v>16</v>
       </c>
-      <c r="N18" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="109"/>
-    </row>
-    <row r="19" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="64"/>
-      <c r="I19" s="62">
-        <v>16</v>
-      </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="39" t="s">
         <v>72</v>
       </c>
       <c r="L19" s="50"/>
@@ -14406,8 +14563,17 @@
       <c r="R19" s="42"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="J20" s="58"/>
-      <c r="L20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="38">
+        <v>17</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L20" s="50"/>
       <c r="M20" s="25">
         <v>12</v>
       </c>
@@ -14425,8 +14591,18 @@
       </c>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="47"/>
+    <row r="21" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="56"/>
+      <c r="I21" s="36">
+        <v>18</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K21" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" s="50"/>
       <c r="M21" s="38">
         <v>13</v>
       </c>
@@ -14522,8 +14698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14560,30 +14736,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -14594,14 +14770,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -14611,11 +14787,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -14627,29 +14803,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14701,18 +14877,18 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="79">
+      <c r="B9" s="77">
         <v>1</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="92" t="s">
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="89" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="50"/>
@@ -14749,7 +14925,7 @@
       <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="76" t="s">
         <v>147</v>
       </c>
       <c r="D10" s="35" t="s">
@@ -14757,7 +14933,7 @@
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="27"/>
-      <c r="G10" s="93"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="50"/>
       <c r="I10" s="38">
         <v>40</v>
@@ -14790,7 +14966,7 @@
       <c r="B11" s="25">
         <v>3</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="76" t="s">
         <v>70</v>
       </c>
       <c r="D11" s="35" t="s">
@@ -14798,7 +14974,7 @@
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="93"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="50"/>
       <c r="I11" s="38">
         <v>41</v>
@@ -14831,7 +15007,7 @@
       <c r="B12" s="25">
         <v>4</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="76" t="s">
         <v>71</v>
       </c>
       <c r="D12" s="35" t="s">
@@ -14839,7 +15015,7 @@
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="93"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="50"/>
       <c r="I12" s="38">
         <v>42</v>
@@ -14872,15 +15048,15 @@
       <c r="B13" s="25">
         <v>5</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="76" t="s">
         <v>148</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E13" s="31"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="120"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="116"/>
       <c r="H13" s="50"/>
       <c r="I13" s="38">
         <v>43</v>
@@ -14913,15 +15089,15 @@
       <c r="B14" s="25">
         <v>6</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="76" t="s">
         <v>149</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E14" s="31"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="120"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="116"/>
       <c r="H14" s="50"/>
       <c r="I14" s="38">
         <v>44</v>
@@ -14954,15 +15130,15 @@
       <c r="B15" s="25">
         <v>7</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="76" t="s">
         <v>150</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>286</v>
       </c>
       <c r="E15" s="31"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="120"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="116"/>
       <c r="H15" s="50"/>
       <c r="I15" s="38">
         <v>45</v>
@@ -14995,15 +15171,15 @@
       <c r="B16" s="25">
         <v>8</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="76" t="s">
         <v>151</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>286</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="120"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="116"/>
       <c r="H16" s="50"/>
       <c r="I16" s="38">
         <v>46</v>
@@ -15036,15 +15212,15 @@
       <c r="B17" s="25">
         <v>9</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="76" t="s">
         <v>152</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>286</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="120"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="116"/>
       <c r="H17" s="50"/>
       <c r="I17" s="38">
         <v>47</v>
@@ -15057,7 +15233,7 @@
       </c>
       <c r="L17" s="50"/>
       <c r="M17" s="25">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -15077,15 +15253,15 @@
       <c r="B18" s="25">
         <v>10</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="76" t="s">
         <v>153</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="120"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="116"/>
       <c r="H18" s="50"/>
       <c r="I18" s="38">
         <v>48</v>
@@ -15097,44 +15273,44 @@
         <v>36</v>
       </c>
       <c r="L18" s="50"/>
-      <c r="M18" s="107">
-        <v>49</v>
-      </c>
-      <c r="N18" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="108" t="s">
+      <c r="M18" s="104">
+        <v>51</v>
+      </c>
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="108" t="s">
+      <c r="P18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="109"/>
-    </row>
-    <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="25">
         <v>11</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="76" t="s">
         <v>154</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>284</v>
       </c>
       <c r="E19" s="31"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="120"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="116"/>
       <c r="H19" s="50"/>
-      <c r="I19" s="36">
+      <c r="I19" s="38">
         <v>49</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="39" t="s">
         <v>72</v>
       </c>
       <c r="L19" s="50"/>
@@ -15159,18 +15335,26 @@
       <c r="B20" s="25">
         <v>12</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="76" t="s">
         <v>155</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E20" s="31"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="101"/>
-      <c r="J20" s="58"/>
-      <c r="L20" s="47"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="38">
+        <v>50</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L20" s="50"/>
       <c r="M20" s="25">
         <v>45</v>
       </c>
@@ -15188,21 +15372,30 @@
       </c>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25">
         <v>13</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="76" t="s">
         <v>156</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>286</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="101"/>
-      <c r="L21" s="47"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="36">
+        <v>51</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K21" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" s="50"/>
       <c r="M21" s="38">
         <v>46</v>
       </c>
@@ -15224,16 +15417,16 @@
       <c r="B22" s="25">
         <v>14</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="76" t="s">
         <v>157</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>286</v>
       </c>
       <c r="E22" s="31"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="101"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="98"/>
       <c r="L22" s="47"/>
       <c r="M22" s="38">
         <v>44</v>
@@ -15256,16 +15449,16 @@
       <c r="B23" s="25">
         <v>15</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="76" t="s">
         <v>158</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E23" s="31"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="101"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="98"/>
       <c r="L23" s="47"/>
       <c r="M23" s="38">
         <v>47</v>
@@ -15288,16 +15481,16 @@
       <c r="B24" s="25">
         <v>16</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="76" t="s">
         <v>159</v>
       </c>
       <c r="D24" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E24" s="31"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="101"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="98"/>
       <c r="L24" s="56"/>
       <c r="M24" s="36">
         <v>47</v>
@@ -15320,331 +15513,331 @@
       <c r="B25" s="25">
         <v>17</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="76" t="s">
         <v>160</v>
       </c>
       <c r="D25" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E25" s="31"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="120"/>
-      <c r="H25" s="101"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="98"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="25">
         <v>18</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="76" t="s">
         <v>161</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>283</v>
       </c>
       <c r="E26" s="31"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="101"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="98"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="25">
         <v>19</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="76" t="s">
         <v>162</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>286</v>
       </c>
       <c r="E27" s="31"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="120"/>
-      <c r="H27" s="101"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="98"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="25">
         <v>20</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="76" t="s">
         <v>163</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>286</v>
       </c>
       <c r="E28" s="31"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="101"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="98"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="25">
         <v>21</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="76" t="s">
         <v>164</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>286</v>
       </c>
       <c r="E29" s="31"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="101"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="98"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B30" s="25">
         <v>22</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="76" t="s">
         <v>165</v>
       </c>
       <c r="D30" s="35" t="s">
         <v>283</v>
       </c>
       <c r="E30" s="31"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="101"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="98"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="25">
         <v>23</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="76" t="s">
         <v>166</v>
       </c>
       <c r="D31" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E31" s="31"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="101"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="98"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="25">
         <v>24</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="76" t="s">
         <v>167</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E32" s="31"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="101"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="98"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" s="25">
         <v>25</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="76" t="s">
         <v>168</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E33" s="31"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="101"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="98"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="25">
         <v>26</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="76" t="s">
         <v>169</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E34" s="31"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="101"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="98"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="25">
         <v>27</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="76" t="s">
         <v>170</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E35" s="31"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="101"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="98"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="25">
         <v>28</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="76" t="s">
         <v>171</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E36" s="31"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="101"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="98"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="25">
         <v>29</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="76" t="s">
         <v>172</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E37" s="31"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="120"/>
-      <c r="H37" s="101"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="98"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="25">
         <v>30</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="76" t="s">
         <v>173</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E38" s="31"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="101"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="98"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="25">
         <v>31</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="76" t="s">
         <v>174</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="120"/>
-      <c r="H39" s="101"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="98"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="25">
         <v>32</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="76" t="s">
         <v>175</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>285</v>
       </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="120"/>
-      <c r="H40" s="101"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="98"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="25">
         <v>33</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="76" t="s">
         <v>128</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>20</v>
       </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="120"/>
-      <c r="H41" s="101"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="98"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="25">
         <v>34</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="76" t="s">
         <v>129</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>286</v>
       </c>
       <c r="E42" s="31"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="101"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="98"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="25">
         <v>35</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="76" t="s">
         <v>130</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>20</v>
       </c>
       <c r="E43" s="31"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="101"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="98"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="25">
         <v>36</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="76" t="s">
         <v>121</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>286</v>
       </c>
       <c r="E44" s="31"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="120"/>
-      <c r="H44" s="101"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="98"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="25">
         <v>37</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="76" t="s">
         <v>103</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>283</v>
       </c>
       <c r="E45" s="31"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="120"/>
-      <c r="H45" s="101"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="98"/>
     </row>
     <row r="46" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="83">
+      <c r="B46" s="81">
         <v>38</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="111" t="s">
+      <c r="D46" s="108" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="37"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="102"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15667,8 +15860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15705,30 +15898,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -15739,14 +15932,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -15756,11 +15949,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15772,29 +15965,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -15846,24 +16039,24 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="48">
+      <c r="B9" s="77">
         <v>1</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="79">
         <v>22</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="43" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="65">
+      <c r="H9" s="62"/>
+      <c r="I9" s="64">
         <v>4</v>
       </c>
       <c r="J9" s="24" t="s">
@@ -15893,7 +16086,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="48">
+      <c r="B10" s="25">
         <v>2</v>
       </c>
       <c r="C10" s="35" t="s">
@@ -15907,8 +16100,8 @@
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="43"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="61">
+      <c r="H10" s="62"/>
+      <c r="I10" s="60">
         <v>5</v>
       </c>
       <c r="J10" s="44" t="s">
@@ -15935,23 +16128,23 @@
       </c>
       <c r="R10" s="42"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="48">
+    <row r="11" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="81">
         <v>3</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="108">
         <v>30</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="61">
+      <c r="F11" s="111"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="60">
         <v>6</v>
       </c>
       <c r="J11" s="26" t="s">
@@ -15979,8 +16172,8 @@
       <c r="R11" s="42"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H12" s="63"/>
-      <c r="I12" s="61">
+      <c r="H12" s="62"/>
+      <c r="I12" s="60">
         <v>7</v>
       </c>
       <c r="J12" s="26" t="s">
@@ -16008,8 +16201,8 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H13" s="63"/>
-      <c r="I13" s="61">
+      <c r="H13" s="62"/>
+      <c r="I13" s="60">
         <v>8</v>
       </c>
       <c r="J13" s="44" t="s">
@@ -16037,8 +16230,8 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="63"/>
-      <c r="I14" s="61">
+      <c r="H14" s="62"/>
+      <c r="I14" s="60">
         <v>9</v>
       </c>
       <c r="J14" s="26" t="s">
@@ -16066,8 +16259,8 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="63"/>
-      <c r="I15" s="61">
+      <c r="H15" s="62"/>
+      <c r="I15" s="60">
         <v>10</v>
       </c>
       <c r="J15" s="26" t="s">
@@ -16095,8 +16288,8 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H16" s="63"/>
-      <c r="I16" s="61">
+      <c r="H16" s="62"/>
+      <c r="I16" s="60">
         <v>11</v>
       </c>
       <c r="J16" s="26" t="s">
@@ -16124,8 +16317,8 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H17" s="63"/>
-      <c r="I17" s="61">
+      <c r="H17" s="62"/>
+      <c r="I17" s="60">
         <v>12</v>
       </c>
       <c r="J17" s="26" t="s">
@@ -16136,7 +16329,7 @@
       </c>
       <c r="L17" s="50"/>
       <c r="M17" s="25">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -16153,8 +16346,8 @@
       <c r="R17" s="42"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H18" s="63"/>
-      <c r="I18" s="61">
+      <c r="H18" s="62"/>
+      <c r="I18" s="60">
         <v>13</v>
       </c>
       <c r="J18" s="31" t="s">
@@ -16164,32 +16357,32 @@
         <v>36</v>
       </c>
       <c r="L18" s="50"/>
-      <c r="M18" s="107">
+      <c r="M18" s="104">
+        <v>16</v>
+      </c>
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H19" s="62"/>
+      <c r="I19" s="60">
         <v>14</v>
       </c>
-      <c r="N18" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="108" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="109"/>
-    </row>
-    <row r="19" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="64"/>
-      <c r="I19" s="62">
-        <v>14</v>
-      </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="39" t="s">
         <v>72</v>
       </c>
       <c r="L19" s="50"/>
@@ -16211,8 +16404,17 @@
       <c r="R19" s="42"/>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="J20" s="58"/>
-      <c r="L20" s="47"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="60">
+        <v>15</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L20" s="50"/>
       <c r="M20" s="25">
         <v>10</v>
       </c>
@@ -16230,8 +16432,18 @@
       </c>
       <c r="R20" s="39"/>
     </row>
-    <row r="21" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L21" s="47"/>
+    <row r="21" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="63"/>
+      <c r="I21" s="61">
+        <v>16</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K21" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="L21" s="50"/>
       <c r="M21" s="38">
         <v>11</v>
       </c>
@@ -16327,8 +16539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16365,30 +16577,30 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="125"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="126"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="122"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="128"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="118"/>
+      <c r="H3" s="114"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
@@ -16399,14 +16611,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="133" t="s">
+      <c r="D4" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="134"/>
-      <c r="F4" s="135"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="110" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="107" t="s">
         <v>276</v>
       </c>
       <c r="J4" s="40"/>
@@ -16416,11 +16628,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="133" t="s">
+      <c r="D5" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="E5" s="130"/>
+      <c r="F5" s="131"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -16432,29 +16644,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="138" t="s">
+      <c r="I7" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="139"/>
-      <c r="K7" s="140"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="122" t="s">
+      <c r="M7" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
+      <c r="Q7" s="119"/>
+      <c r="R7" s="119"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16519,11 +16731,11 @@
         <v>3</v>
       </c>
       <c r="F9" s="35"/>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="60">
+      <c r="H9" s="47"/>
+      <c r="I9" s="137">
         <v>4</v>
       </c>
       <c r="J9" s="24" t="s">
@@ -16566,9 +16778,9 @@
         <v>30</v>
       </c>
       <c r="F10" s="35"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="60">
+      <c r="G10" s="58"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="138">
         <v>5</v>
       </c>
       <c r="J10" s="44" t="s">
@@ -16609,9 +16821,9 @@
         <v>1</v>
       </c>
       <c r="F11" s="35"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="60">
+      <c r="G11" s="58"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="138">
         <v>6</v>
       </c>
       <c r="J11" s="26" t="s">
@@ -16639,8 +16851,8 @@
       <c r="R11" s="42"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H12" s="63"/>
-      <c r="I12" s="61">
+      <c r="H12" s="47"/>
+      <c r="I12" s="38">
         <v>7</v>
       </c>
       <c r="J12" s="26" t="s">
@@ -16668,8 +16880,8 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H13" s="63"/>
-      <c r="I13" s="61">
+      <c r="H13" s="47"/>
+      <c r="I13" s="38">
         <v>8</v>
       </c>
       <c r="J13" s="44" t="s">
@@ -16697,8 +16909,8 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H14" s="63"/>
-      <c r="I14" s="61">
+      <c r="H14" s="47"/>
+      <c r="I14" s="38">
         <v>9</v>
       </c>
       <c r="J14" s="26" t="s">
@@ -16726,8 +16938,8 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H15" s="63"/>
-      <c r="I15" s="61">
+      <c r="H15" s="47"/>
+      <c r="I15" s="38">
         <v>10</v>
       </c>
       <c r="J15" s="26" t="s">
@@ -16755,8 +16967,8 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="H16" s="63"/>
-      <c r="I16" s="61">
+      <c r="H16" s="47"/>
+      <c r="I16" s="38">
         <v>11</v>
       </c>
       <c r="J16" s="26" t="s">
@@ -16784,8 +16996,8 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="H17" s="63"/>
-      <c r="I17" s="61">
+      <c r="H17" s="47"/>
+      <c r="I17" s="38">
         <v>13</v>
       </c>
       <c r="J17" s="31" t="s">
@@ -16796,7 +17008,7 @@
       </c>
       <c r="L17" s="50"/>
       <c r="M17" s="25">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="N17" s="34" t="s">
         <v>63</v>
@@ -16812,38 +17024,47 @@
       </c>
       <c r="R17" s="42"/>
     </row>
-    <row r="18" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="64"/>
-      <c r="I18" s="62">
+    <row r="18" spans="8:18" x14ac:dyDescent="0.2">
+      <c r="H18" s="47"/>
+      <c r="I18" s="38">
         <v>14</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="39" t="s">
         <v>72</v>
       </c>
       <c r="L18" s="50"/>
-      <c r="M18" s="107">
-        <v>14</v>
-      </c>
-      <c r="N18" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="108" t="s">
+      <c r="M18" s="104">
+        <v>16</v>
+      </c>
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="108" t="s">
+      <c r="P18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="109"/>
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="J19" s="58"/>
-      <c r="L19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="38">
+        <v>15</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="L19" s="50"/>
       <c r="M19" s="25">
         <v>9</v>
       </c>
@@ -16861,8 +17082,18 @@
       </c>
       <c r="R19" s="42"/>
     </row>
-    <row r="20" spans="8:18" x14ac:dyDescent="0.2">
-      <c r="L20" s="47"/>
+    <row r="20" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="56"/>
+      <c r="I20" s="36">
+        <v>16</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K20" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="L20" s="50"/>
       <c r="M20" s="25">
         <v>10</v>
       </c>

--- a/CRM/Mapeos_CLS_CRM_V3.1.xlsx
+++ b/CRM/Mapeos_CLS_CRM_V3.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="495" windowWidth="9225" windowHeight="4530" tabRatio="583" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="285" yWindow="555" windowWidth="9225" windowHeight="4470" tabRatio="583" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="PSXLATITEMLANG" sheetId="22" r:id="rId1"/>
@@ -2350,7 +2350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="292">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3180,9 +3180,6 @@
     <t>Cargados por otra fuente</t>
   </si>
   <si>
-    <t>Fecha de fin para cierre de registros</t>
-  </si>
-  <si>
     <t>Validaciones Generales AA_TIPO_DOC /1. Búsqueda del correlativo</t>
   </si>
   <si>
@@ -3223,6 +3220,12 @@
   </si>
   <si>
     <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Fecha de inicio del registro</t>
+  </si>
+  <si>
+    <t>Fecha de fin del registro</t>
   </si>
 </sst>
 </file>
@@ -3397,7 +3400,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3553,6 +3556,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4190,7 +4199,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -4362,7 +4371,6 @@
     <xf numFmtId="0" fontId="2" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4378,15 +4386,31 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4444,13 +4468,6 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -4941,8 +4958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R152"/>
   <sheetViews>
-    <sheetView topLeftCell="F23" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33:K34"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N142" sqref="N142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4979,61 +4996,66 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -5044,29 +5066,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -5132,7 +5154,7 @@
       </c>
       <c r="F9" s="80"/>
       <c r="G9" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H9" s="62"/>
       <c r="I9" s="64">
@@ -5179,7 +5201,7 @@
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H10" s="62"/>
       <c r="I10" s="60">
@@ -5224,7 +5246,7 @@
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H11" s="62"/>
       <c r="I11" s="60">
@@ -5453,22 +5475,22 @@
         <v>246</v>
       </c>
       <c r="L17" s="98"/>
-      <c r="M17" s="25">
+      <c r="M17" s="129">
         <v>32</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="127" t="s">
         <v>190</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="62"/>
@@ -5550,7 +5572,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -5913,28 +5935,28 @@
         <v>31</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K33" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L33" s="98"/>
-      <c r="M33" s="25">
+      <c r="M33" s="129">
         <v>32</v>
       </c>
-      <c r="N33" s="34" t="s">
+      <c r="N33" s="127" t="s">
         <v>191</v>
       </c>
-      <c r="O33" s="34" t="s">
+      <c r="O33" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P33" s="34" t="s">
+      <c r="P33" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q33" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="42"/>
+      <c r="Q33" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R33" s="128"/>
     </row>
     <row r="34" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H34" s="63"/>
@@ -5942,10 +5964,10 @@
         <v>32</v>
       </c>
       <c r="J34" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K34" s="40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L34" s="98"/>
       <c r="M34" s="104">
@@ -6235,22 +6257,22 @@
     </row>
     <row r="49" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L49" s="62"/>
-      <c r="M49" s="25">
+      <c r="M49" s="129">
         <v>32</v>
       </c>
-      <c r="N49" s="34" t="s">
+      <c r="N49" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="O49" s="34" t="s">
+      <c r="O49" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P49" s="34" t="s">
+      <c r="P49" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="42"/>
+      <c r="Q49" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="128"/>
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L50" s="62"/>
@@ -6541,22 +6563,22 @@
     </row>
     <row r="65" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L65" s="62"/>
-      <c r="M65" s="25">
+      <c r="M65" s="129">
         <v>32</v>
       </c>
-      <c r="N65" s="34" t="s">
+      <c r="N65" s="127" t="s">
         <v>193</v>
       </c>
-      <c r="O65" s="34" t="s">
+      <c r="O65" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P65" s="34" t="s">
+      <c r="P65" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q65" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R65" s="42"/>
+      <c r="Q65" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R65" s="128"/>
     </row>
     <row r="66" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L66" s="62"/>
@@ -6847,22 +6869,22 @@
     </row>
     <row r="81" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L81" s="62"/>
-      <c r="M81" s="25">
+      <c r="M81" s="129">
         <v>32</v>
       </c>
-      <c r="N81" s="34" t="s">
+      <c r="N81" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="O81" s="34" t="s">
+      <c r="O81" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P81" s="34" t="s">
+      <c r="P81" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q81" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R81" s="42"/>
+      <c r="Q81" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R81" s="128"/>
     </row>
     <row r="82" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L82" s="62"/>
@@ -7153,22 +7175,22 @@
     </row>
     <row r="97" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L97" s="62"/>
-      <c r="M97" s="25">
+      <c r="M97" s="129">
         <v>32</v>
       </c>
-      <c r="N97" s="34" t="s">
+      <c r="N97" s="127" t="s">
         <v>195</v>
       </c>
-      <c r="O97" s="34" t="s">
+      <c r="O97" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P97" s="34" t="s">
+      <c r="P97" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q97" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R97" s="42"/>
+      <c r="Q97" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R97" s="128"/>
     </row>
     <row r="98" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L98" s="62"/>
@@ -7459,22 +7481,22 @@
     </row>
     <row r="113" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L113" s="62"/>
-      <c r="M113" s="25">
+      <c r="M113" s="129">
         <v>32</v>
       </c>
-      <c r="N113" s="34" t="s">
+      <c r="N113" s="127" t="s">
         <v>196</v>
       </c>
-      <c r="O113" s="34" t="s">
+      <c r="O113" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P113" s="34" t="s">
+      <c r="P113" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q113" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R113" s="42"/>
+      <c r="Q113" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R113" s="128"/>
     </row>
     <row r="114" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L114" s="62"/>
@@ -7765,22 +7787,22 @@
     </row>
     <row r="129" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L129" s="62"/>
-      <c r="M129" s="25">
+      <c r="M129" s="129">
         <v>32</v>
       </c>
-      <c r="N129" s="34" t="s">
+      <c r="N129" s="127" t="s">
         <v>197</v>
       </c>
-      <c r="O129" s="34" t="s">
+      <c r="O129" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P129" s="34" t="s">
+      <c r="P129" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q129" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R129" s="42"/>
+      <c r="Q129" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R129" s="128"/>
     </row>
     <row r="130" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L130" s="62"/>
@@ -8071,22 +8093,22 @@
     </row>
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="62"/>
-      <c r="M145" s="25">
+      <c r="M145" s="129">
         <v>32</v>
       </c>
-      <c r="N145" s="34" t="s">
+      <c r="N145" s="127" t="s">
         <v>198</v>
       </c>
-      <c r="O145" s="34" t="s">
+      <c r="O145" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P145" s="34" t="s">
+      <c r="P145" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q145" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R145" s="42"/>
+      <c r="Q145" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R145" s="128"/>
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="62"/>
@@ -8242,8 +8264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:K21"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8280,63 +8302,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -8347,29 +8374,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -8438,7 +8465,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="62"/>
-      <c r="I9" s="139">
+      <c r="I9" s="118">
         <v>12</v>
       </c>
       <c r="J9" s="24" t="s">
@@ -8794,22 +8821,22 @@
         <v>111</v>
       </c>
       <c r="L17" s="98"/>
-      <c r="M17" s="71">
+      <c r="M17" s="126">
         <v>23</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="48">
@@ -8837,7 +8864,7 @@
         <v>36</v>
       </c>
       <c r="L18" s="98"/>
-      <c r="M18" s="113">
+      <c r="M18" s="112">
         <v>24</v>
       </c>
       <c r="N18" s="105" t="s">
@@ -8903,10 +8930,10 @@
         <v>23</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L20" s="98"/>
       <c r="M20" s="71">
@@ -8919,7 +8946,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -8932,10 +8959,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K21" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L21" s="98"/>
       <c r="M21" s="60">
@@ -9033,8 +9060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:K19"/>
+    <sheetView topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9071,63 +9098,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -9138,29 +9170,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9229,7 +9261,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="62"/>
-      <c r="I9" s="139">
+      <c r="I9" s="118">
         <v>3</v>
       </c>
       <c r="J9" s="24" t="s">
@@ -9487,22 +9519,22 @@
         <v>36</v>
       </c>
       <c r="L17" s="62"/>
-      <c r="M17" s="71">
+      <c r="M17" s="126">
         <v>13</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="62"/>
@@ -9510,28 +9542,28 @@
         <v>13</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K18" s="67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L18" s="62"/>
-      <c r="M18" s="71">
+      <c r="M18" s="112">
         <v>14</v>
       </c>
-      <c r="N18" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="34" t="s">
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="42"/>
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="63"/>
@@ -9539,10 +9571,10 @@
         <v>14</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="K19" s="110" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="K19" s="109" t="s">
+        <v>288</v>
       </c>
       <c r="L19" s="62"/>
       <c r="M19" s="71">
@@ -9574,7 +9606,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -9678,8 +9710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K20"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9716,63 +9748,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -9783,29 +9820,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -9870,9 +9907,9 @@
         <v>30</v>
       </c>
       <c r="F9" s="79"/>
-      <c r="G9" s="140"/>
+      <c r="G9" s="119"/>
       <c r="H9" s="47"/>
-      <c r="I9" s="137">
+      <c r="I9" s="116">
         <v>14</v>
       </c>
       <c r="J9" s="24" t="s">
@@ -9915,9 +9952,9 @@
         <v>22</v>
       </c>
       <c r="F10" s="35"/>
-      <c r="G10" s="141"/>
+      <c r="G10" s="120"/>
       <c r="H10" s="47"/>
-      <c r="I10" s="138">
+      <c r="I10" s="117">
         <v>15</v>
       </c>
       <c r="J10" s="44" t="s">
@@ -9958,9 +9995,9 @@
         <v>7</v>
       </c>
       <c r="F11" s="35"/>
-      <c r="G11" s="141"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="47"/>
-      <c r="I11" s="138">
+      <c r="I11" s="117">
         <v>16</v>
       </c>
       <c r="J11" s="26" t="s">
@@ -10001,7 +10038,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="65"/>
-      <c r="G12" s="116"/>
+      <c r="G12" s="114"/>
       <c r="H12" s="47"/>
       <c r="I12" s="38">
         <v>17</v>
@@ -10031,7 +10068,7 @@
       <c r="R12" s="42"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="142">
+      <c r="B13" s="121">
         <v>5</v>
       </c>
       <c r="C13" s="35" t="s">
@@ -10076,7 +10113,7 @@
       <c r="R13" s="42"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="142">
+      <c r="B14" s="121">
         <v>6</v>
       </c>
       <c r="C14" s="35" t="s">
@@ -10089,7 +10126,7 @@
         <v>30</v>
       </c>
       <c r="F14" s="65"/>
-      <c r="G14" s="116"/>
+      <c r="G14" s="114"/>
       <c r="H14" s="47"/>
       <c r="I14" s="38">
         <v>19</v>
@@ -10119,7 +10156,7 @@
       <c r="R14" s="42"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="142">
+      <c r="B15" s="121">
         <v>7</v>
       </c>
       <c r="C15" s="48" t="s">
@@ -10132,7 +10169,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="65"/>
-      <c r="G15" s="116"/>
+      <c r="G15" s="114"/>
       <c r="H15" s="47"/>
       <c r="I15" s="38">
         <v>20</v>
@@ -10162,7 +10199,7 @@
       <c r="R15" s="42"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="142">
+      <c r="B16" s="121">
         <v>8</v>
       </c>
       <c r="C16" s="35" t="s">
@@ -10175,7 +10212,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="65"/>
-      <c r="G16" s="116"/>
+      <c r="G16" s="114"/>
       <c r="H16" s="47"/>
       <c r="I16" s="38">
         <v>21</v>
@@ -10205,7 +10242,7 @@
       <c r="R16" s="42"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="142">
+      <c r="B17" s="121">
         <v>9</v>
       </c>
       <c r="C17" s="35" t="s">
@@ -10218,7 +10255,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="65"/>
-      <c r="G17" s="116"/>
+      <c r="G17" s="114"/>
       <c r="H17" s="47"/>
       <c r="I17" s="38">
         <v>22</v>
@@ -10230,25 +10267,25 @@
         <v>136</v>
       </c>
       <c r="L17" s="98"/>
-      <c r="M17" s="71">
+      <c r="M17" s="126">
         <v>24</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="142">
+      <c r="B18" s="121">
         <v>10</v>
       </c>
       <c r="C18" s="35" t="s">
@@ -10261,7 +10298,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="65"/>
-      <c r="G18" s="116"/>
+      <c r="G18" s="114"/>
       <c r="H18" s="47"/>
       <c r="I18" s="38">
         <v>23</v>
@@ -10273,25 +10310,25 @@
         <v>36</v>
       </c>
       <c r="L18" s="98"/>
-      <c r="M18" s="71">
+      <c r="M18" s="112">
         <v>25</v>
       </c>
-      <c r="N18" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="34" t="s">
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="42"/>
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="142">
+      <c r="B19" s="121">
         <v>11</v>
       </c>
       <c r="C19" s="35" t="s">
@@ -10304,16 +10341,16 @@
         <v>7</v>
       </c>
       <c r="F19" s="65"/>
-      <c r="G19" s="116"/>
+      <c r="G19" s="114"/>
       <c r="H19" s="47"/>
       <c r="I19" s="38">
         <v>24</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L19" s="98"/>
       <c r="M19" s="71">
@@ -10334,7 +10371,7 @@
       <c r="R19" s="42"/>
     </row>
     <row r="20" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="142">
+      <c r="B20" s="121">
         <v>12</v>
       </c>
       <c r="C20" s="35" t="s">
@@ -10347,16 +10384,16 @@
         <v>30</v>
       </c>
       <c r="F20" s="65"/>
-      <c r="G20" s="116"/>
+      <c r="G20" s="114"/>
       <c r="H20" s="47"/>
       <c r="I20" s="36">
         <v>25</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K20" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L20" s="98"/>
       <c r="M20" s="71">
@@ -10369,7 +10406,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -10377,10 +10414,10 @@
       <c r="R20" s="39"/>
     </row>
     <row r="21" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="143">
+      <c r="B21" s="122">
         <v>13</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="107" t="s">
         <v>130</v>
       </c>
       <c r="D21" s="94" t="s">
@@ -10390,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="83"/>
-      <c r="G21" s="117"/>
+      <c r="G21" s="115"/>
       <c r="H21" s="63"/>
       <c r="L21" s="62"/>
       <c r="M21" s="60">
@@ -10488,8 +10525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:M18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10526,63 +10563,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>138</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="123"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="J3" s="39"/>
-    </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -10593,29 +10635,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -10682,7 +10724,7 @@
       <c r="F9" s="35"/>
       <c r="G9" s="58"/>
       <c r="H9" s="47"/>
-      <c r="I9" s="137">
+      <c r="I9" s="116">
         <v>6</v>
       </c>
       <c r="J9" s="24" t="s">
@@ -10729,7 +10771,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="47"/>
-      <c r="I10" s="138">
+      <c r="I10" s="117">
         <v>7</v>
       </c>
       <c r="J10" s="44" t="s">
@@ -10772,7 +10814,7 @@
       <c r="F11" s="35"/>
       <c r="G11" s="58"/>
       <c r="H11" s="47"/>
-      <c r="I11" s="138">
+      <c r="I11" s="117">
         <v>8</v>
       </c>
       <c r="J11" s="26" t="s">
@@ -10984,22 +11026,22 @@
         <v>146</v>
       </c>
       <c r="L17" s="62"/>
-      <c r="M17" s="71">
+      <c r="M17" s="126">
         <v>16</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="47"/>
@@ -11013,22 +11055,22 @@
         <v>36</v>
       </c>
       <c r="L18" s="62"/>
-      <c r="M18" s="71">
+      <c r="M18" s="112">
         <v>17</v>
       </c>
-      <c r="N18" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="34" t="s">
+      <c r="N18" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R18" s="42"/>
+      <c r="Q18" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="106"/>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H19" s="47"/>
@@ -11036,10 +11078,10 @@
         <v>16</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K19" s="67" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L19" s="62"/>
       <c r="M19" s="71">
@@ -11065,10 +11107,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="K20" s="110" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="K20" s="109" t="s">
+        <v>288</v>
       </c>
       <c r="L20" s="62"/>
       <c r="M20" s="71">
@@ -11081,7 +11123,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -11185,8 +11227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="K17" sqref="I17:K18"/>
+    <sheetView topLeftCell="L3" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11223,63 +11265,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -11290,29 +11337,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -11378,7 +11425,7 @@
       </c>
       <c r="F9" s="80"/>
       <c r="G9" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="51">
@@ -11605,7 +11652,7 @@
         <v>34</v>
       </c>
       <c r="K14" s="53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L14" s="50"/>
       <c r="M14" s="25">
@@ -11648,7 +11695,7 @@
         <v>57</v>
       </c>
       <c r="K15" s="53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L15" s="50"/>
       <c r="M15" s="25">
@@ -11691,7 +11738,7 @@
         <v>235</v>
       </c>
       <c r="K16" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L16" s="50"/>
       <c r="M16" s="25">
@@ -11731,28 +11778,28 @@
         <v>19</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K17" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L17" s="50"/>
-      <c r="M17" s="38">
+      <c r="M17" s="130">
         <v>20</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="93">
@@ -11774,10 +11821,10 @@
         <v>20</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L18" s="50"/>
       <c r="M18" s="104">
@@ -11828,7 +11875,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -11932,8 +11979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="H16" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:K18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11970,63 +12017,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -12037,29 +12089,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12125,7 +12177,7 @@
       </c>
       <c r="F9" s="80"/>
       <c r="G9" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="51">
@@ -12204,17 +12256,17 @@
       <c r="B11" s="81">
         <v>3</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="107" t="s">
         <v>264</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="107">
         <v>40</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="112"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="47"/>
       <c r="I11" s="38">
         <v>6</v>
@@ -12394,28 +12446,28 @@
         <v>12</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L17" s="50"/>
-      <c r="M17" s="25">
+      <c r="M17" s="129">
         <v>12</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H18" s="56"/>
@@ -12423,10 +12475,10 @@
         <v>13</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K18" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L18" s="50"/>
       <c r="M18" s="104">
@@ -12477,7 +12529,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -12581,8 +12633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:K18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12619,63 +12671,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -12686,29 +12743,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -12819,7 +12876,7 @@
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H10" s="62"/>
       <c r="I10" s="60">
@@ -13127,28 +13184,28 @@
         <v>22</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L17" s="50"/>
-      <c r="M17" s="25">
+      <c r="M17" s="129">
         <v>22</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="91">
@@ -13170,10 +13227,10 @@
         <v>23</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K18" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L18" s="50"/>
       <c r="M18" s="104">
@@ -13252,7 +13309,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -13370,8 +13427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:K18"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13408,63 +13465,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -13475,29 +13537,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -13563,7 +13625,7 @@
       </c>
       <c r="F9" s="80"/>
       <c r="G9" s="84" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="51">
@@ -13599,17 +13661,17 @@
       <c r="B10" s="81">
         <v>2</v>
       </c>
-      <c r="C10" s="108" t="s">
+      <c r="C10" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="108">
+      <c r="E10" s="107">
         <v>30</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="112"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="111"/>
       <c r="H10" s="47"/>
       <c r="I10" s="38">
         <v>4</v>
@@ -13818,28 +13880,28 @@
         <v>11</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L17" s="98"/>
-      <c r="M17" s="25">
+      <c r="M17" s="129">
         <v>11</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="8:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H18" s="56"/>
@@ -13847,10 +13909,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K18" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L18" s="98"/>
       <c r="M18" s="104">
@@ -13901,7 +13963,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -14005,8 +14067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:K21"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14043,63 +14105,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -14110,29 +14177,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14487,22 +14554,22 @@
         <v>182</v>
       </c>
       <c r="L17" s="50"/>
-      <c r="M17" s="25">
+      <c r="M17" s="129">
         <v>17</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="47"/>
@@ -14568,10 +14635,10 @@
         <v>17</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L20" s="50"/>
       <c r="M20" s="25">
@@ -14584,7 +14651,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -14597,10 +14664,10 @@
         <v>18</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K21" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L21" s="50"/>
       <c r="M21" s="38">
@@ -14698,8 +14765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:K21"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14736,63 +14803,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -14803,29 +14875,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -14884,7 +14956,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="79"/>
       <c r="F9" s="80"/>
@@ -14929,7 +15001,7 @@
         <v>147</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="27"/>
@@ -14970,7 +15042,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="18"/>
@@ -15011,7 +15083,7 @@
         <v>71</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="27"/>
@@ -15052,11 +15124,11 @@
         <v>148</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="65"/>
-      <c r="G13" s="116"/>
+      <c r="G13" s="114"/>
       <c r="H13" s="50"/>
       <c r="I13" s="38">
         <v>43</v>
@@ -15093,11 +15165,11 @@
         <v>149</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="65"/>
-      <c r="G14" s="116"/>
+      <c r="G14" s="114"/>
       <c r="H14" s="50"/>
       <c r="I14" s="38">
         <v>44</v>
@@ -15134,11 +15206,11 @@
         <v>150</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="65"/>
-      <c r="G15" s="116"/>
+      <c r="G15" s="114"/>
       <c r="H15" s="50"/>
       <c r="I15" s="38">
         <v>45</v>
@@ -15175,11 +15247,11 @@
         <v>151</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="65"/>
-      <c r="G16" s="116"/>
+      <c r="G16" s="114"/>
       <c r="H16" s="50"/>
       <c r="I16" s="38">
         <v>46</v>
@@ -15216,11 +15288,11 @@
         <v>152</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="65"/>
-      <c r="G17" s="116"/>
+      <c r="G17" s="114"/>
       <c r="H17" s="50"/>
       <c r="I17" s="38">
         <v>47</v>
@@ -15232,22 +15304,22 @@
         <v>187</v>
       </c>
       <c r="L17" s="50"/>
-      <c r="M17" s="25">
+      <c r="M17" s="129">
         <v>50</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="25">
@@ -15257,11 +15329,11 @@
         <v>153</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="65"/>
-      <c r="G18" s="116"/>
+      <c r="G18" s="114"/>
       <c r="H18" s="50"/>
       <c r="I18" s="38">
         <v>48</v>
@@ -15298,11 +15370,11 @@
         <v>154</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="65"/>
-      <c r="G19" s="116"/>
+      <c r="G19" s="114"/>
       <c r="H19" s="50"/>
       <c r="I19" s="38">
         <v>49</v>
@@ -15339,20 +15411,20 @@
         <v>155</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="65"/>
-      <c r="G20" s="116"/>
+      <c r="G20" s="114"/>
       <c r="H20" s="50"/>
       <c r="I20" s="38">
         <v>50</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L20" s="50"/>
       <c r="M20" s="25">
@@ -15365,7 +15437,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -15380,20 +15452,20 @@
         <v>156</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="65"/>
-      <c r="G21" s="116"/>
+      <c r="G21" s="114"/>
       <c r="H21" s="50"/>
       <c r="I21" s="36">
         <v>51</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K21" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L21" s="50"/>
       <c r="M21" s="38">
@@ -15421,11 +15493,11 @@
         <v>157</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="65"/>
-      <c r="G22" s="116"/>
+      <c r="G22" s="114"/>
       <c r="H22" s="98"/>
       <c r="L22" s="47"/>
       <c r="M22" s="38">
@@ -15453,11 +15525,11 @@
         <v>158</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="65"/>
-      <c r="G23" s="116"/>
+      <c r="G23" s="114"/>
       <c r="H23" s="98"/>
       <c r="L23" s="47"/>
       <c r="M23" s="38">
@@ -15485,11 +15557,11 @@
         <v>159</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E24" s="31"/>
       <c r="F24" s="65"/>
-      <c r="G24" s="116"/>
+      <c r="G24" s="114"/>
       <c r="H24" s="98"/>
       <c r="L24" s="56"/>
       <c r="M24" s="36">
@@ -15517,11 +15589,11 @@
         <v>160</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E25" s="31"/>
       <c r="F25" s="65"/>
-      <c r="G25" s="116"/>
+      <c r="G25" s="114"/>
       <c r="H25" s="98"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
@@ -15532,11 +15604,11 @@
         <v>161</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E26" s="31"/>
       <c r="F26" s="65"/>
-      <c r="G26" s="116"/>
+      <c r="G26" s="114"/>
       <c r="H26" s="98"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
@@ -15547,11 +15619,11 @@
         <v>162</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E27" s="31"/>
       <c r="F27" s="65"/>
-      <c r="G27" s="116"/>
+      <c r="G27" s="114"/>
       <c r="H27" s="98"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
@@ -15562,11 +15634,11 @@
         <v>163</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E28" s="31"/>
       <c r="F28" s="65"/>
-      <c r="G28" s="116"/>
+      <c r="G28" s="114"/>
       <c r="H28" s="98"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
@@ -15577,11 +15649,11 @@
         <v>164</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="65"/>
-      <c r="G29" s="116"/>
+      <c r="G29" s="114"/>
       <c r="H29" s="98"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
@@ -15592,11 +15664,11 @@
         <v>165</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E30" s="31"/>
       <c r="F30" s="65"/>
-      <c r="G30" s="116"/>
+      <c r="G30" s="114"/>
       <c r="H30" s="98"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
@@ -15607,11 +15679,11 @@
         <v>166</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E31" s="31"/>
       <c r="F31" s="65"/>
-      <c r="G31" s="116"/>
+      <c r="G31" s="114"/>
       <c r="H31" s="98"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
@@ -15622,11 +15694,11 @@
         <v>167</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E32" s="31"/>
       <c r="F32" s="65"/>
-      <c r="G32" s="116"/>
+      <c r="G32" s="114"/>
       <c r="H32" s="98"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
@@ -15637,11 +15709,11 @@
         <v>168</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="65"/>
-      <c r="G33" s="116"/>
+      <c r="G33" s="114"/>
       <c r="H33" s="98"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
@@ -15652,11 +15724,11 @@
         <v>169</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="65"/>
-      <c r="G34" s="116"/>
+      <c r="G34" s="114"/>
       <c r="H34" s="98"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
@@ -15667,11 +15739,11 @@
         <v>170</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="65"/>
-      <c r="G35" s="116"/>
+      <c r="G35" s="114"/>
       <c r="H35" s="98"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -15682,11 +15754,11 @@
         <v>171</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E36" s="31"/>
       <c r="F36" s="65"/>
-      <c r="G36" s="116"/>
+      <c r="G36" s="114"/>
       <c r="H36" s="98"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
@@ -15697,11 +15769,11 @@
         <v>172</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E37" s="31"/>
       <c r="F37" s="65"/>
-      <c r="G37" s="116"/>
+      <c r="G37" s="114"/>
       <c r="H37" s="98"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
@@ -15712,11 +15784,11 @@
         <v>173</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E38" s="31"/>
       <c r="F38" s="65"/>
-      <c r="G38" s="116"/>
+      <c r="G38" s="114"/>
       <c r="H38" s="98"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -15727,11 +15799,11 @@
         <v>174</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E39" s="31"/>
       <c r="F39" s="65"/>
-      <c r="G39" s="116"/>
+      <c r="G39" s="114"/>
       <c r="H39" s="98"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
@@ -15742,11 +15814,11 @@
         <v>175</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E40" s="31"/>
       <c r="F40" s="65"/>
-      <c r="G40" s="116"/>
+      <c r="G40" s="114"/>
       <c r="H40" s="98"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
@@ -15761,7 +15833,7 @@
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="65"/>
-      <c r="G41" s="116"/>
+      <c r="G41" s="114"/>
       <c r="H41" s="98"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -15772,11 +15844,11 @@
         <v>129</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="65"/>
-      <c r="G42" s="116"/>
+      <c r="G42" s="114"/>
       <c r="H42" s="98"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
@@ -15791,7 +15863,7 @@
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="65"/>
-      <c r="G43" s="116"/>
+      <c r="G43" s="114"/>
       <c r="H43" s="98"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -15802,11 +15874,11 @@
         <v>121</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="65"/>
-      <c r="G44" s="116"/>
+      <c r="G44" s="114"/>
       <c r="H44" s="98"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
@@ -15817,11 +15889,11 @@
         <v>103</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="65"/>
-      <c r="G45" s="116"/>
+      <c r="G45" s="114"/>
       <c r="H45" s="98"/>
     </row>
     <row r="46" spans="2:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -15831,12 +15903,12 @@
       <c r="C46" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="D46" s="108" t="s">
+      <c r="D46" s="107" t="s">
         <v>20</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="83"/>
-      <c r="G46" s="117"/>
+      <c r="G46" s="115"/>
       <c r="H46" s="99"/>
     </row>
   </sheetData>
@@ -15860,8 +15932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:K21"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15898,63 +15970,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -15965,29 +16042,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16132,17 +16209,17 @@
       <c r="B11" s="81">
         <v>3</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="107">
         <v>30</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="112"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="62"/>
       <c r="I11" s="60">
         <v>6</v>
@@ -16328,22 +16405,22 @@
         <v>88</v>
       </c>
       <c r="L17" s="50"/>
-      <c r="M17" s="25">
+      <c r="M17" s="129">
         <v>15</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="62"/>
@@ -16409,10 +16486,10 @@
         <v>15</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K20" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L20" s="50"/>
       <c r="M20" s="25">
@@ -16425,7 +16502,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>
@@ -16438,10 +16515,10 @@
         <v>16</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K21" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L21" s="50"/>
       <c r="M21" s="38">
@@ -16539,8 +16616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:K20"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16577,63 +16654,68 @@
         <v>15</v>
       </c>
       <c r="C2" s="29"/>
-      <c r="D2" s="123" t="s">
+      <c r="D2" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="124"/>
-      <c r="F2" s="125"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="138"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="133" t="s">
         <v>274</v>
       </c>
-      <c r="I2" s="121"/>
-      <c r="J2" s="122"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="33"/>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="139" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="128"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="114"/>
+      <c r="H3" s="113"/>
       <c r="I3" s="26" t="s">
         <v>275</v>
       </c>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="130"/>
-      <c r="F4" s="131"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="144"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="107" t="s">
-        <v>276</v>
-      </c>
-      <c r="J4" s="40"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="31"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="129" t="s">
+      <c r="D5" s="142" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="130"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="144"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="31"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
@@ -16644,29 +16726,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="146"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="134" t="s">
+      <c r="I7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="118" t="s">
+      <c r="M7" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
-      <c r="P7" s="119"/>
-      <c r="Q7" s="119"/>
-      <c r="R7" s="119"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -16735,7 +16817,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="47"/>
-      <c r="I9" s="137">
+      <c r="I9" s="116">
         <v>4</v>
       </c>
       <c r="J9" s="24" t="s">
@@ -16780,7 +16862,7 @@
       <c r="F10" s="35"/>
       <c r="G10" s="58"/>
       <c r="H10" s="47"/>
-      <c r="I10" s="138">
+      <c r="I10" s="117">
         <v>5</v>
       </c>
       <c r="J10" s="44" t="s">
@@ -16823,7 +16905,7 @@
       <c r="F11" s="35"/>
       <c r="G11" s="58"/>
       <c r="H11" s="47"/>
-      <c r="I11" s="138">
+      <c r="I11" s="117">
         <v>6</v>
       </c>
       <c r="J11" s="26" t="s">
@@ -17007,22 +17089,22 @@
         <v>36</v>
       </c>
       <c r="L17" s="50"/>
-      <c r="M17" s="25">
+      <c r="M17" s="129">
         <v>15</v>
       </c>
-      <c r="N17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="O17" s="34" t="s">
+      <c r="N17" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R17" s="42"/>
+      <c r="Q17" s="127" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="128"/>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.2">
       <c r="H18" s="47"/>
@@ -17059,10 +17141,10 @@
         <v>15</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L19" s="50"/>
       <c r="M19" s="25">
@@ -17088,10 +17170,10 @@
         <v>16</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K20" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L20" s="50"/>
       <c r="M20" s="25">
@@ -17104,7 +17186,7 @@
         <v>50</v>
       </c>
       <c r="P20" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q20" s="34" t="s">
         <v>21</v>

--- a/CRM/Mapeos_CLS_CRM_V3.1.xlsx
+++ b/CRM/Mapeos_CLS_CRM_V3.1.xlsx
@@ -4948,7 +4948,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10526,7 +10526,7 @@
   <dimension ref="B1:R24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J5"/>
+      <selection activeCell="H2" sqref="H2:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
